--- a/data/raw/election/voters-age-sex-education/2023/Trabzon.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Trabzon.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:02:54-54421876946" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="47">
   <si>
     <t>Trabzon</t>
   </si>
@@ -155,6 +154,12 @@
   </si>
   <si>
     <t>Yomra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -702,16 +707,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,10 +1050,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473:A474"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,52 +1069,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1157,8 +1171,8 @@
       <c r="G6" s="4">
         <v>989</v>
       </c>
-      <c r="H6" s="4">
-        <v>3.9340000000000002</v>
+      <c r="H6" s="5">
+        <v>3934</v>
       </c>
       <c r="I6" s="4">
         <v>811</v>
@@ -1172,8 +1186,8 @@
       <c r="L6" s="4">
         <v>41</v>
       </c>
-      <c r="M6" s="5">
-        <v>5.79</v>
+      <c r="M6" s="6">
+        <v>5790</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1196,11 +1210,11 @@
       <c r="G7" s="4">
         <v>659</v>
       </c>
-      <c r="H7" s="4">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.2629999999999999</v>
+      <c r="H7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1263</v>
       </c>
       <c r="J7" s="4">
         <v>11</v>
@@ -1211,8 +1225,8 @@
       <c r="L7" s="4">
         <v>19</v>
       </c>
-      <c r="M7" s="5">
-        <v>5.9729999999999999</v>
+      <c r="M7" s="6">
+        <v>5973</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1237,11 +1251,11 @@
       <c r="G8" s="4">
         <v>644</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.536</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.8620000000000001</v>
+      <c r="H8" s="5">
+        <v>1536</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1862</v>
       </c>
       <c r="J8" s="4">
         <v>97</v>
@@ -1252,8 +1266,8 @@
       <c r="L8" s="4">
         <v>25</v>
       </c>
-      <c r="M8" s="5">
-        <v>4.1870000000000003</v>
+      <c r="M8" s="6">
+        <v>4187</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1276,11 +1290,11 @@
       <c r="G9" s="4">
         <v>524</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.3820000000000001</v>
+      <c r="H9" s="5">
+        <v>1183</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2382</v>
       </c>
       <c r="J9" s="4">
         <v>162</v>
@@ -1291,8 +1305,8 @@
       <c r="L9" s="4">
         <v>28</v>
       </c>
-      <c r="M9" s="5">
-        <v>4.3220000000000001</v>
+      <c r="M9" s="6">
+        <v>4322</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,11 +1331,11 @@
       <c r="G10" s="4">
         <v>312</v>
       </c>
-      <c r="H10" s="4">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.8109999999999999</v>
+      <c r="H10" s="5">
+        <v>1563</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1811</v>
       </c>
       <c r="J10" s="4">
         <v>212</v>
@@ -1332,8 +1346,8 @@
       <c r="L10" s="4">
         <v>29</v>
       </c>
-      <c r="M10" s="5">
-        <v>4.4080000000000004</v>
+      <c r="M10" s="6">
+        <v>4408</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1356,11 +1370,11 @@
       <c r="G11" s="4">
         <v>298</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.008</v>
+      <c r="H11" s="5">
+        <v>1219</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2008</v>
       </c>
       <c r="J11" s="4">
         <v>251</v>
@@ -1371,8 +1385,8 @@
       <c r="L11" s="4">
         <v>29</v>
       </c>
-      <c r="M11" s="5">
-        <v>4.3819999999999997</v>
+      <c r="M11" s="6">
+        <v>4382</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,11 +1411,11 @@
       <c r="G12" s="4">
         <v>311</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.919</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.4810000000000001</v>
+      <c r="H12" s="5">
+        <v>1919</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1481</v>
       </c>
       <c r="J12" s="4">
         <v>265</v>
@@ -1412,8 +1426,8 @@
       <c r="L12" s="4">
         <v>30</v>
       </c>
-      <c r="M12" s="5">
-        <v>4.8070000000000004</v>
+      <c r="M12" s="6">
+        <v>4807</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1436,11 +1450,11 @@
       <c r="G13" s="4">
         <v>390</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.393</v>
+      <c r="H13" s="5">
+        <v>1614</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1393</v>
       </c>
       <c r="J13" s="4">
         <v>232</v>
@@ -1451,8 +1465,8 @@
       <c r="L13" s="4">
         <v>28</v>
       </c>
-      <c r="M13" s="5">
-        <v>4.734</v>
+      <c r="M13" s="6">
+        <v>4734</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1477,11 +1491,11 @@
       <c r="G14" s="4">
         <v>684</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.988</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.139</v>
+      <c r="H14" s="5">
+        <v>1988</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1139</v>
       </c>
       <c r="J14" s="4">
         <v>230</v>
@@ -1492,8 +1506,8 @@
       <c r="L14" s="4">
         <v>37</v>
       </c>
-      <c r="M14" s="5">
-        <v>4.9359999999999999</v>
+      <c r="M14" s="6">
+        <v>4936</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1516,11 +1530,11 @@
       <c r="G15" s="4">
         <v>723</v>
       </c>
-      <c r="H15" s="4">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.097</v>
+      <c r="H15" s="5">
+        <v>1451</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1097</v>
       </c>
       <c r="J15" s="4">
         <v>154</v>
@@ -1531,8 +1545,8 @@
       <c r="L15" s="4">
         <v>27</v>
       </c>
-      <c r="M15" s="5">
-        <v>4.7320000000000002</v>
+      <c r="M15" s="6">
+        <v>4732</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,8 +1571,8 @@
       <c r="G16" s="4">
         <v>583</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.661</v>
+      <c r="H16" s="5">
+        <v>1661</v>
       </c>
       <c r="I16" s="4">
         <v>940</v>
@@ -1572,8 +1586,8 @@
       <c r="L16" s="4">
         <v>46</v>
       </c>
-      <c r="M16" s="5">
-        <v>4.476</v>
+      <c r="M16" s="6">
+        <v>4476</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1587,8 +1601,8 @@
       <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.119</v>
+      <c r="E17" s="5">
+        <v>1119</v>
       </c>
       <c r="F17" s="4">
         <v>462</v>
@@ -1596,8 +1610,8 @@
       <c r="G17" s="4">
         <v>672</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.0429999999999999</v>
+      <c r="H17" s="5">
+        <v>1043</v>
       </c>
       <c r="I17" s="4">
         <v>656</v>
@@ -1611,8 +1625,8 @@
       <c r="L17" s="4">
         <v>34</v>
       </c>
-      <c r="M17" s="5">
-        <v>4.1470000000000002</v>
+      <c r="M17" s="6">
+        <v>4147</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,8 +1651,8 @@
       <c r="G18" s="4">
         <v>641</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.2450000000000001</v>
+      <c r="H18" s="5">
+        <v>1245</v>
       </c>
       <c r="I18" s="4">
         <v>836</v>
@@ -1652,8 +1666,8 @@
       <c r="L18" s="4">
         <v>50</v>
       </c>
-      <c r="M18" s="5">
-        <v>4.133</v>
+      <c r="M18" s="6">
+        <v>4133</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1667,8 +1681,8 @@
       <c r="D19" s="4">
         <v>78</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.377</v>
+      <c r="E19" s="5">
+        <v>1377</v>
       </c>
       <c r="F19" s="4">
         <v>459</v>
@@ -1691,8 +1705,8 @@
       <c r="L19" s="4">
         <v>45</v>
       </c>
-      <c r="M19" s="5">
-        <v>3.8639999999999999</v>
+      <c r="M19" s="6">
+        <v>3864</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1732,8 +1746,8 @@
       <c r="L20" s="4">
         <v>76</v>
       </c>
-      <c r="M20" s="5">
-        <v>3.9239999999999999</v>
+      <c r="M20" s="6">
+        <v>3924</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1747,8 +1761,8 @@
       <c r="D21" s="4">
         <v>277</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.92</v>
+      <c r="E21" s="5">
+        <v>1920</v>
       </c>
       <c r="F21" s="4">
         <v>308</v>
@@ -1771,8 +1785,8 @@
       <c r="L21" s="4">
         <v>77</v>
       </c>
-      <c r="M21" s="5">
-        <v>3.976</v>
+      <c r="M21" s="6">
+        <v>3976</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1788,8 +1802,8 @@
       <c r="D22" s="4">
         <v>34</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.331</v>
+      <c r="E22" s="5">
+        <v>1331</v>
       </c>
       <c r="F22" s="4">
         <v>265</v>
@@ -1812,8 +1826,8 @@
       <c r="L22" s="4">
         <v>80</v>
       </c>
-      <c r="M22" s="5">
-        <v>3.4620000000000002</v>
+      <c r="M22" s="6">
+        <v>3462</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,8 +1841,8 @@
       <c r="D23" s="4">
         <v>520</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.8140000000000001</v>
+      <c r="E23" s="5">
+        <v>1814</v>
       </c>
       <c r="F23" s="4">
         <v>163</v>
@@ -1851,8 +1865,8 @@
       <c r="L23" s="4">
         <v>68</v>
       </c>
-      <c r="M23" s="5">
-        <v>3.617</v>
+      <c r="M23" s="6">
+        <v>3617</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1868,8 +1882,8 @@
       <c r="D24" s="4">
         <v>71</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.41</v>
+      <c r="E24" s="5">
+        <v>1410</v>
       </c>
       <c r="F24" s="4">
         <v>132</v>
@@ -1892,8 +1906,8 @@
       <c r="L24" s="4">
         <v>83</v>
       </c>
-      <c r="M24" s="5">
-        <v>2.9390000000000001</v>
+      <c r="M24" s="6">
+        <v>2939</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1907,8 +1921,8 @@
       <c r="D25" s="4">
         <v>880</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.3129999999999999</v>
+      <c r="E25" s="5">
+        <v>1313</v>
       </c>
       <c r="F25" s="4">
         <v>61</v>
@@ -1931,8 +1945,8 @@
       <c r="L25" s="4">
         <v>70</v>
       </c>
-      <c r="M25" s="5">
-        <v>3.2330000000000001</v>
+      <c r="M25" s="6">
+        <v>3233</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1948,8 +1962,8 @@
       <c r="D26" s="4">
         <v>165</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.1220000000000001</v>
+      <c r="E26" s="5">
+        <v>1122</v>
       </c>
       <c r="F26" s="4">
         <v>37</v>
@@ -1972,8 +1986,8 @@
       <c r="L26" s="4">
         <v>65</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.0720000000000001</v>
+      <c r="M26" s="6">
+        <v>2072</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2011,8 +2025,8 @@
       <c r="L27" s="4">
         <v>41</v>
       </c>
-      <c r="M27" s="5">
-        <v>2.0920000000000001</v>
+      <c r="M27" s="6">
+        <v>2092</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2028,8 +2042,8 @@
       <c r="D28" s="4">
         <v>501</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.032</v>
+      <c r="E28" s="5">
+        <v>1032</v>
       </c>
       <c r="F28" s="4">
         <v>17</v>
@@ -2052,8 +2066,8 @@
       <c r="L28" s="4">
         <v>53</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.1280000000000001</v>
+      <c r="M28" s="6">
+        <v>2128</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2061,11 +2075,11 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.577</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.52</v>
+      <c r="C29" s="5">
+        <v>1577</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1520</v>
       </c>
       <c r="E29" s="4">
         <v>534</v>
@@ -2091,54 +2105,54 @@
       <c r="L29" s="4">
         <v>60</v>
       </c>
-      <c r="M29" s="5">
-        <v>3.7909999999999999</v>
+      <c r="M29" s="6">
+        <v>3791</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>3.3460000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5.0670000000000002</v>
-      </c>
-      <c r="E30" s="5">
-        <v>17.238</v>
-      </c>
-      <c r="F30" s="5">
-        <v>6.6749999999999998</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10.885</v>
-      </c>
-      <c r="H30" s="5">
-        <v>28.891999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>20.245000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2.1880000000000002</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>3346</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5067</v>
+      </c>
+      <c r="E30" s="6">
+        <v>17238</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6675</v>
+      </c>
+      <c r="G30" s="6">
+        <v>10885</v>
+      </c>
+      <c r="H30" s="6">
+        <v>28892</v>
+      </c>
+      <c r="I30" s="6">
+        <v>20245</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2188</v>
+      </c>
+      <c r="K30" s="8">
         <v>448</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.141</v>
-      </c>
-      <c r="M30" s="5">
-        <v>96.125</v>
+      <c r="L30" s="6">
+        <v>1141</v>
+      </c>
+      <c r="M30" s="6">
+        <v>96125</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2195,8 +2209,8 @@
       <c r="G32" s="4">
         <v>650</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.605</v>
+      <c r="H32" s="5">
+        <v>1605</v>
       </c>
       <c r="I32" s="4">
         <v>247</v>
@@ -2210,8 +2224,8 @@
       <c r="L32" s="4">
         <v>23</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.5459999999999998</v>
+      <c r="M32" s="6">
+        <v>2546</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2234,8 +2248,8 @@
       <c r="G33" s="4">
         <v>498</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.766</v>
+      <c r="H33" s="5">
+        <v>1766</v>
       </c>
       <c r="I33" s="4">
         <v>472</v>
@@ -2249,8 +2263,8 @@
       <c r="L33" s="4">
         <v>6</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.7650000000000001</v>
+      <c r="M33" s="6">
+        <v>2765</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,8 +2304,8 @@
       <c r="L34" s="4">
         <v>16</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.792</v>
+      <c r="M34" s="6">
+        <v>1792</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2329,8 +2343,8 @@
       <c r="L35" s="4">
         <v>16</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.748</v>
+      <c r="M35" s="6">
+        <v>1748</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2370,8 +2384,8 @@
       <c r="L36" s="4">
         <v>13</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.6180000000000001</v>
+      <c r="M36" s="6">
+        <v>1618</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2409,8 +2423,8 @@
       <c r="L37" s="4">
         <v>16</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.544</v>
+      <c r="M37" s="6">
+        <v>1544</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2450,8 +2464,8 @@
       <c r="L38" s="4">
         <v>27</v>
       </c>
-      <c r="M38" s="5">
-        <v>1.7010000000000001</v>
+      <c r="M38" s="6">
+        <v>1701</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2489,8 +2503,8 @@
       <c r="L39" s="4">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.5569999999999999</v>
+      <c r="M39" s="6">
+        <v>1557</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2530,8 +2544,8 @@
       <c r="L40" s="4">
         <v>19</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.696</v>
+      <c r="M40" s="6">
+        <v>1696</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2569,8 +2583,8 @@
       <c r="L41" s="4">
         <v>19</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.569</v>
+      <c r="M41" s="6">
+        <v>1569</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,8 +2624,8 @@
       <c r="L42" s="4">
         <v>25</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.482</v>
+      <c r="M42" s="6">
+        <v>1482</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2649,8 +2663,8 @@
       <c r="L43" s="4">
         <v>27</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.3080000000000001</v>
+      <c r="M43" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2690,8 +2704,8 @@
       <c r="L44" s="4">
         <v>13</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.3720000000000001</v>
+      <c r="M44" s="6">
+        <v>1372</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2729,8 +2743,8 @@
       <c r="L45" s="4">
         <v>27</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.2809999999999999</v>
+      <c r="M45" s="6">
+        <v>1281</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2770,8 +2784,8 @@
       <c r="L46" s="4">
         <v>37</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.413</v>
+      <c r="M46" s="6">
+        <v>1413</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2809,8 +2823,8 @@
       <c r="L47" s="4">
         <v>34</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M47" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2850,8 +2864,8 @@
       <c r="L48" s="4">
         <v>36</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.282</v>
+      <c r="M48" s="6">
+        <v>1282</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2889,8 +2903,8 @@
       <c r="L49" s="4">
         <v>39</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.325</v>
+      <c r="M49" s="6">
+        <v>1325</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2930,8 +2944,8 @@
       <c r="L50" s="4">
         <v>32</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.1379999999999999</v>
+      <c r="M50" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2969,8 +2983,8 @@
       <c r="L51" s="4">
         <v>44</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.31</v>
+      <c r="M51" s="6">
+        <v>1310</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3010,7 +3024,7 @@
       <c r="L52" s="4">
         <v>14</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>748</v>
       </c>
     </row>
@@ -3049,7 +3063,7 @@
       <c r="L53" s="4">
         <v>25</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>914</v>
       </c>
     </row>
@@ -3090,7 +3104,7 @@
       <c r="L54" s="4">
         <v>18</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>848</v>
       </c>
     </row>
@@ -3129,54 +3143,54 @@
       <c r="L55" s="4">
         <v>52</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.649</v>
+      <c r="M55" s="6">
+        <v>1649</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>9.157</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.327</v>
-      </c>
-      <c r="G56" s="5">
-        <v>5.2009999999999996</v>
-      </c>
-      <c r="H56" s="5">
-        <v>9.3390000000000004</v>
-      </c>
-      <c r="I56" s="5">
-        <v>4.6689999999999996</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>1674</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1707</v>
+      </c>
+      <c r="E56" s="6">
+        <v>9157</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3327</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5201</v>
+      </c>
+      <c r="H56" s="6">
+        <v>9339</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4669</v>
+      </c>
+      <c r="J56" s="8">
         <v>334</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>38</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>593</v>
       </c>
-      <c r="M56" s="5">
-        <v>36.039000000000001</v>
+      <c r="M56" s="6">
+        <v>36039</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3248,8 +3262,8 @@
       <c r="L58" s="4">
         <v>17</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.6220000000000001</v>
+      <c r="M58" s="6">
+        <v>1622</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3287,8 +3301,8 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.631</v>
+      <c r="M59" s="6">
+        <v>1631</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3328,8 +3342,8 @@
       <c r="L60" s="4">
         <v>3</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.123</v>
+      <c r="M60" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3367,8 +3381,8 @@
       <c r="L61" s="4">
         <v>11</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.1990000000000001</v>
+      <c r="M61" s="6">
+        <v>1199</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3408,8 +3422,8 @@
       <c r="L62" s="4">
         <v>10</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M62" s="6">
+        <v>1114</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3447,7 +3461,7 @@
       <c r="L63" s="4">
         <v>10</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>995</v>
       </c>
     </row>
@@ -3488,8 +3502,8 @@
       <c r="L64" s="4">
         <v>12</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.093</v>
+      <c r="M64" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3527,7 +3541,7 @@
       <c r="L65" s="4">
         <v>8</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>925</v>
       </c>
     </row>
@@ -3568,7 +3582,7 @@
       <c r="L66" s="4">
         <v>7</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>990</v>
       </c>
     </row>
@@ -3607,7 +3621,7 @@
       <c r="L67" s="4">
         <v>12</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>883</v>
       </c>
     </row>
@@ -3648,7 +3662,7 @@
       <c r="L68" s="4">
         <v>10</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>919</v>
       </c>
     </row>
@@ -3687,7 +3701,7 @@
       <c r="L69" s="4">
         <v>10</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>793</v>
       </c>
     </row>
@@ -3728,7 +3742,7 @@
       <c r="L70" s="4">
         <v>12</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>925</v>
       </c>
     </row>
@@ -3767,7 +3781,7 @@
       <c r="L71" s="4">
         <v>11</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>931</v>
       </c>
     </row>
@@ -3808,8 +3822,8 @@
       <c r="L72" s="4">
         <v>15</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.077</v>
+      <c r="M72" s="6">
+        <v>1077</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3847,8 +3861,8 @@
       <c r="L73" s="4">
         <v>22</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.042</v>
+      <c r="M73" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3888,7 +3902,7 @@
       <c r="L74" s="4">
         <v>17</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>975</v>
       </c>
     </row>
@@ -3927,7 +3941,7 @@
       <c r="L75" s="4">
         <v>8</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>934</v>
       </c>
     </row>
@@ -3968,7 +3982,7 @@
       <c r="L76" s="4">
         <v>20</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>809</v>
       </c>
     </row>
@@ -4007,7 +4021,7 @@
       <c r="L77" s="4">
         <v>17</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>867</v>
       </c>
     </row>
@@ -4048,7 +4062,7 @@
       <c r="L78" s="4">
         <v>7</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>467</v>
       </c>
     </row>
@@ -4087,7 +4101,7 @@
       <c r="L79" s="4">
         <v>9</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>539</v>
       </c>
     </row>
@@ -4128,7 +4142,7 @@
       <c r="L80" s="4">
         <v>7</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>540</v>
       </c>
     </row>
@@ -4167,7 +4181,7 @@
       <c r="L81" s="4">
         <v>19</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>957</v>
       </c>
     </row>
@@ -4175,46 +4189,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>945</v>
       </c>
-      <c r="D82" s="5">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5.1980000000000004</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.222</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.597</v>
-      </c>
-      <c r="H82" s="5">
-        <v>6.2850000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.15</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="D82" s="6">
+        <v>1437</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5198</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2222</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3597</v>
+      </c>
+      <c r="H82" s="6">
+        <v>6285</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3150</v>
+      </c>
+      <c r="J82" s="8">
         <v>222</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>18</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>276</v>
       </c>
-      <c r="M82" s="5">
-        <v>23.35</v>
+      <c r="M82" s="6">
+        <v>23350</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4300,7 @@
       <c r="L84" s="4">
         <v>6</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>936</v>
       </c>
     </row>
@@ -4325,7 +4339,7 @@
       <c r="L85" s="4">
         <v>2</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>934</v>
       </c>
     </row>
@@ -4366,7 +4380,7 @@
       <c r="L86" s="4">
         <v>3</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>614</v>
       </c>
     </row>
@@ -4405,7 +4419,7 @@
       <c r="L87" s="4">
         <v>4</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>623</v>
       </c>
     </row>
@@ -4446,7 +4460,7 @@
       <c r="L88" s="4">
         <v>2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>577</v>
       </c>
     </row>
@@ -4485,7 +4499,7 @@
       <c r="L89" s="4">
         <v>2</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>550</v>
       </c>
     </row>
@@ -4526,7 +4540,7 @@
       <c r="L90" s="4">
         <v>1</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>583</v>
       </c>
     </row>
@@ -4565,7 +4579,7 @@
       <c r="L91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>599</v>
       </c>
     </row>
@@ -4606,7 +4620,7 @@
       <c r="L92" s="4">
         <v>4</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>691</v>
       </c>
     </row>
@@ -4645,7 +4659,7 @@
       <c r="L93" s="4">
         <v>2</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>675</v>
       </c>
     </row>
@@ -4686,7 +4700,7 @@
       <c r="L94" s="4">
         <v>5</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>594</v>
       </c>
     </row>
@@ -4725,7 +4739,7 @@
       <c r="L95" s="4">
         <v>5</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>707</v>
       </c>
     </row>
@@ -4766,7 +4780,7 @@
       <c r="L96" s="4">
         <v>8</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>715</v>
       </c>
     </row>
@@ -4805,7 +4819,7 @@
       <c r="L97" s="4">
         <v>7</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>744</v>
       </c>
     </row>
@@ -4846,7 +4860,7 @@
       <c r="L98" s="4">
         <v>11</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>854</v>
       </c>
     </row>
@@ -4885,7 +4899,7 @@
       <c r="L99" s="4">
         <v>3</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>868</v>
       </c>
     </row>
@@ -4926,7 +4940,7 @@
       <c r="L100" s="4">
         <v>20</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>900</v>
       </c>
     </row>
@@ -4965,7 +4979,7 @@
       <c r="L101" s="4">
         <v>12</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>830</v>
       </c>
     </row>
@@ -5006,7 +5020,7 @@
       <c r="L102" s="4">
         <v>2</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>729</v>
       </c>
     </row>
@@ -5045,7 +5059,7 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>808</v>
       </c>
     </row>
@@ -5086,7 +5100,7 @@
       <c r="L104" s="4">
         <v>3</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>489</v>
       </c>
     </row>
@@ -5125,7 +5139,7 @@
       <c r="L105" s="4">
         <v>6</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>540</v>
       </c>
     </row>
@@ -5166,7 +5180,7 @@
       <c r="L106" s="4">
         <v>12</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>687</v>
       </c>
     </row>
@@ -5205,54 +5219,54 @@
       <c r="L107" s="4">
         <v>7</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.2549999999999999</v>
+      <c r="M107" s="6">
+        <v>1255</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>628</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>762</v>
       </c>
-      <c r="E108" s="5">
-        <v>3.0680000000000001</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>3068</v>
+      </c>
+      <c r="F108" s="8">
         <v>805</v>
       </c>
-      <c r="G108" s="5">
-        <v>1.869</v>
-      </c>
-      <c r="H108" s="5">
-        <v>6.0110000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.915</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="G108" s="6">
+        <v>1869</v>
+      </c>
+      <c r="H108" s="6">
+        <v>6011</v>
+      </c>
+      <c r="I108" s="6">
+        <v>3915</v>
+      </c>
+      <c r="J108" s="8">
         <v>292</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>22</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>130</v>
       </c>
-      <c r="M108" s="5">
-        <v>17.501999999999999</v>
+      <c r="M108" s="6">
+        <v>17502</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5324,7 +5338,7 @@
       <c r="L110" s="4">
         <v>9</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>794</v>
       </c>
     </row>
@@ -5363,7 +5377,7 @@
       <c r="L111" s="4">
         <v>1</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>737</v>
       </c>
     </row>
@@ -5404,7 +5418,7 @@
       <c r="L112" s="4">
         <v>1</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>516</v>
       </c>
     </row>
@@ -5443,7 +5457,7 @@
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>493</v>
       </c>
     </row>
@@ -5484,7 +5498,7 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>484</v>
       </c>
     </row>
@@ -5523,7 +5537,7 @@
       <c r="L115" s="4">
         <v>2</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>371</v>
       </c>
     </row>
@@ -5564,7 +5578,7 @@
       <c r="L116" s="4">
         <v>2</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>501</v>
       </c>
     </row>
@@ -5603,7 +5617,7 @@
       <c r="L117" s="4">
         <v>2</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>469</v>
       </c>
     </row>
@@ -5644,7 +5658,7 @@
       <c r="L118" s="4">
         <v>3</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>504</v>
       </c>
     </row>
@@ -5683,7 +5697,7 @@
       <c r="L119" s="4">
         <v>1</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>470</v>
       </c>
     </row>
@@ -5724,7 +5738,7 @@
       <c r="L120" s="4">
         <v>6</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>531</v>
       </c>
     </row>
@@ -5763,7 +5777,7 @@
       <c r="L121" s="4">
         <v>2</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>487</v>
       </c>
     </row>
@@ -5804,7 +5818,7 @@
       <c r="L122" s="4">
         <v>2</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>540</v>
       </c>
     </row>
@@ -5843,7 +5857,7 @@
       <c r="L123" s="4">
         <v>2</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>501</v>
       </c>
     </row>
@@ -5884,7 +5898,7 @@
       <c r="L124" s="4">
         <v>11</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>630</v>
       </c>
     </row>
@@ -5923,7 +5937,7 @@
       <c r="L125" s="4">
         <v>4</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>552</v>
       </c>
     </row>
@@ -5964,7 +5978,7 @@
       <c r="L126" s="4">
         <v>4</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>542</v>
       </c>
     </row>
@@ -6003,7 +6017,7 @@
       <c r="L127" s="4">
         <v>7</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>543</v>
       </c>
     </row>
@@ -6044,7 +6058,7 @@
       <c r="L128" s="4">
         <v>7</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>517</v>
       </c>
     </row>
@@ -6083,7 +6097,7 @@
       <c r="L129" s="4">
         <v>6</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>497</v>
       </c>
     </row>
@@ -6124,7 +6138,7 @@
       <c r="L130" s="4">
         <v>5</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>342</v>
       </c>
     </row>
@@ -6163,7 +6177,7 @@
       <c r="L131" s="4">
         <v>2</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>334</v>
       </c>
     </row>
@@ -6204,7 +6218,7 @@
       <c r="L132" s="4">
         <v>6</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>370</v>
       </c>
     </row>
@@ -6243,7 +6257,7 @@
       <c r="L133" s="4">
         <v>5</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>615</v>
       </c>
     </row>
@@ -6251,46 +6265,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>515</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>919</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.758</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>2758</v>
+      </c>
+      <c r="F134" s="8">
         <v>885</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.59</v>
-      </c>
-      <c r="H134" s="5">
-        <v>3.649</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.8120000000000001</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="G134" s="6">
+        <v>1590</v>
+      </c>
+      <c r="H134" s="6">
+        <v>3649</v>
+      </c>
+      <c r="I134" s="6">
+        <v>1812</v>
+      </c>
+      <c r="J134" s="8">
         <v>102</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>18</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>92</v>
       </c>
-      <c r="M134" s="5">
-        <v>12.34</v>
+      <c r="M134" s="6">
+        <v>12340</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6362,7 +6376,7 @@
       <c r="L136" s="4">
         <v>6</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="8">
         <v>554</v>
       </c>
     </row>
@@ -6401,7 +6415,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="8">
         <v>558</v>
       </c>
     </row>
@@ -6442,7 +6456,7 @@
       <c r="L138" s="4">
         <v>4</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="8">
         <v>436</v>
       </c>
     </row>
@@ -6481,7 +6495,7 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="8">
         <v>359</v>
       </c>
     </row>
@@ -6522,7 +6536,7 @@
       <c r="L140" s="4">
         <v>5</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="8">
         <v>382</v>
       </c>
     </row>
@@ -6561,7 +6575,7 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="8">
         <v>317</v>
       </c>
     </row>
@@ -6602,7 +6616,7 @@
       <c r="L142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>367</v>
       </c>
     </row>
@@ -6641,7 +6655,7 @@
       <c r="L143" s="4">
         <v>2</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>287</v>
       </c>
     </row>
@@ -6682,7 +6696,7 @@
       <c r="L144" s="4">
         <v>8</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>390</v>
       </c>
     </row>
@@ -6721,7 +6735,7 @@
       <c r="L145" s="4">
         <v>6</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="8">
         <v>313</v>
       </c>
     </row>
@@ -6762,7 +6776,7 @@
       <c r="L146" s="4">
         <v>8</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>376</v>
       </c>
     </row>
@@ -6801,7 +6815,7 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>332</v>
       </c>
     </row>
@@ -6842,7 +6856,7 @@
       <c r="L148" s="4">
         <v>10</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>430</v>
       </c>
     </row>
@@ -6881,7 +6895,7 @@
       <c r="L149" s="4">
         <v>8</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>413</v>
       </c>
     </row>
@@ -6922,7 +6936,7 @@
       <c r="L150" s="4">
         <v>15</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>491</v>
       </c>
     </row>
@@ -6961,7 +6975,7 @@
       <c r="L151" s="4">
         <v>11</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>489</v>
       </c>
     </row>
@@ -7002,7 +7016,7 @@
       <c r="L152" s="4">
         <v>19</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>521</v>
       </c>
     </row>
@@ -7041,7 +7055,7 @@
       <c r="L153" s="4">
         <v>14</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>553</v>
       </c>
     </row>
@@ -7082,7 +7096,7 @@
       <c r="L154" s="4">
         <v>12</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>520</v>
       </c>
     </row>
@@ -7121,7 +7135,7 @@
       <c r="L155" s="4">
         <v>6</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>563</v>
       </c>
     </row>
@@ -7162,7 +7176,7 @@
       <c r="L156" s="4">
         <v>12</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>404</v>
       </c>
     </row>
@@ -7201,7 +7215,7 @@
       <c r="L157" s="4">
         <v>8</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>453</v>
       </c>
     </row>
@@ -7242,7 +7256,7 @@
       <c r="L158" s="4">
         <v>13</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>576</v>
       </c>
     </row>
@@ -7281,7 +7295,7 @@
       <c r="L159" s="4">
         <v>13</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>952</v>
       </c>
     </row>
@@ -7289,46 +7303,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>576</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="8">
         <v>821</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>2974</v>
+      </c>
+      <c r="F160" s="8">
         <v>673</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.6989999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="G160" s="6">
+        <v>1205</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2699</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1730</v>
+      </c>
+      <c r="J160" s="8">
         <v>145</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>13</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>200</v>
       </c>
-      <c r="M160" s="5">
-        <v>11.036</v>
+      <c r="M160" s="6">
+        <v>11036</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7414,7 @@
       <c r="L162" s="4">
         <v>2</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="8">
         <v>130</v>
       </c>
     </row>
@@ -7439,7 +7453,7 @@
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="8">
         <v>127</v>
       </c>
     </row>
@@ -7480,7 +7494,7 @@
       <c r="L164" s="4">
         <v>1</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>105</v>
       </c>
     </row>
@@ -7519,7 +7533,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>86</v>
       </c>
     </row>
@@ -7560,7 +7574,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>91</v>
       </c>
     </row>
@@ -7599,7 +7613,7 @@
       <c r="L167" s="4">
         <v>2</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>68</v>
       </c>
     </row>
@@ -7640,7 +7654,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>88</v>
       </c>
     </row>
@@ -7679,7 +7693,7 @@
       <c r="L169" s="4">
         <v>1</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>67</v>
       </c>
     </row>
@@ -7720,7 +7734,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>83</v>
       </c>
     </row>
@@ -7759,7 +7773,7 @@
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>67</v>
       </c>
     </row>
@@ -7800,7 +7814,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>98</v>
       </c>
     </row>
@@ -7839,7 +7853,7 @@
       <c r="L173" s="4">
         <v>1</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>90</v>
       </c>
     </row>
@@ -7880,7 +7894,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>116</v>
       </c>
     </row>
@@ -7919,7 +7933,7 @@
       <c r="L175" s="4">
         <v>1</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>130</v>
       </c>
     </row>
@@ -7960,7 +7974,7 @@
       <c r="L176" s="4">
         <v>3</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>150</v>
       </c>
     </row>
@@ -7999,7 +8013,7 @@
       <c r="L177" s="4">
         <v>4</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>169</v>
       </c>
     </row>
@@ -8040,7 +8054,7 @@
       <c r="L178" s="4">
         <v>3</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>187</v>
       </c>
     </row>
@@ -8079,7 +8093,7 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>171</v>
       </c>
     </row>
@@ -8120,7 +8134,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>182</v>
       </c>
     </row>
@@ -8159,7 +8173,7 @@
       <c r="L181" s="4">
         <v>2</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>207</v>
       </c>
     </row>
@@ -8200,7 +8214,7 @@
       <c r="L182" s="4">
         <v>2</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>158</v>
       </c>
     </row>
@@ -8239,7 +8253,7 @@
       <c r="L183" s="4">
         <v>2</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>177</v>
       </c>
     </row>
@@ -8280,7 +8294,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>194</v>
       </c>
     </row>
@@ -8319,7 +8333,7 @@
       <c r="L185" s="4">
         <v>8</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="8">
         <v>287</v>
       </c>
     </row>
@@ -8327,46 +8341,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>206</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>276</v>
       </c>
-      <c r="E186" s="5">
-        <v>1.044</v>
-      </c>
-      <c r="F186" s="5">
+      <c r="E186" s="6">
+        <v>1044</v>
+      </c>
+      <c r="F186" s="8">
         <v>181</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="8">
         <v>321</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="8">
         <v>709</v>
       </c>
-      <c r="I186" s="5">
+      <c r="I186" s="8">
         <v>405</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="8">
         <v>36</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>6</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>44</v>
       </c>
-      <c r="M186" s="5">
-        <v>3.2280000000000002</v>
+      <c r="M186" s="6">
+        <v>3228</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8438,7 +8452,7 @@
       <c r="L188" s="4">
         <v>5</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>720</v>
       </c>
     </row>
@@ -8477,7 +8491,7 @@
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>733</v>
       </c>
     </row>
@@ -8518,7 +8532,7 @@
       <c r="L190" s="4">
         <v>2</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>465</v>
       </c>
     </row>
@@ -8557,7 +8571,7 @@
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>395</v>
       </c>
     </row>
@@ -8598,7 +8612,7 @@
       <c r="L192" s="4">
         <v>3</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>377</v>
       </c>
     </row>
@@ -8637,7 +8651,7 @@
       <c r="L193" s="4">
         <v>4</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>292</v>
       </c>
     </row>
@@ -8678,7 +8692,7 @@
       <c r="L194" s="4">
         <v>5</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>398</v>
       </c>
     </row>
@@ -8717,7 +8731,7 @@
       <c r="L195" s="4">
         <v>4</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>371</v>
       </c>
     </row>
@@ -8758,7 +8772,7 @@
       <c r="L196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>497</v>
       </c>
     </row>
@@ -8797,7 +8811,7 @@
       <c r="L197" s="4">
         <v>1</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>409</v>
       </c>
     </row>
@@ -8838,7 +8852,7 @@
       <c r="L198" s="4">
         <v>6</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>448</v>
       </c>
     </row>
@@ -8877,7 +8891,7 @@
       <c r="L199" s="4">
         <v>3</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>438</v>
       </c>
     </row>
@@ -8918,7 +8932,7 @@
       <c r="L200" s="4">
         <v>10</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>436</v>
       </c>
     </row>
@@ -8957,7 +8971,7 @@
       <c r="L201" s="4">
         <v>4</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>387</v>
       </c>
     </row>
@@ -8998,7 +9012,7 @@
       <c r="L202" s="4">
         <v>7</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>506</v>
       </c>
     </row>
@@ -9037,7 +9051,7 @@
       <c r="L203" s="4">
         <v>9</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>515</v>
       </c>
     </row>
@@ -9078,7 +9092,7 @@
       <c r="L204" s="4">
         <v>9</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>415</v>
       </c>
     </row>
@@ -9117,7 +9131,7 @@
       <c r="L205" s="4">
         <v>11</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>460</v>
       </c>
     </row>
@@ -9158,7 +9172,7 @@
       <c r="L206" s="4">
         <v>9</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>380</v>
       </c>
     </row>
@@ -9197,7 +9211,7 @@
       <c r="L207" s="4">
         <v>12</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>500</v>
       </c>
     </row>
@@ -9238,7 +9252,7 @@
       <c r="L208" s="4">
         <v>5</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>255</v>
       </c>
     </row>
@@ -9277,7 +9291,7 @@
       <c r="L209" s="4">
         <v>5</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>311</v>
       </c>
     </row>
@@ -9318,7 +9332,7 @@
       <c r="L210" s="4">
         <v>14</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>274</v>
       </c>
     </row>
@@ -9357,7 +9371,7 @@
       <c r="L211" s="4">
         <v>9</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>654</v>
       </c>
     </row>
@@ -9365,46 +9379,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>745</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>819</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.054</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.63</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="E212" s="6">
+        <v>2785</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1054</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1424</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2630</v>
+      </c>
+      <c r="I212" s="8">
         <v>985</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>47</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>8</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>139</v>
       </c>
-      <c r="M212" s="5">
-        <v>10.635999999999999</v>
+      <c r="M212" s="6">
+        <v>10636</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9476,7 +9490,7 @@
       <c r="L214" s="4">
         <v>5</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="8">
         <v>302</v>
       </c>
     </row>
@@ -9515,7 +9529,7 @@
       <c r="L215" s="4">
         <v>5</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="8">
         <v>315</v>
       </c>
     </row>
@@ -9556,7 +9570,7 @@
       <c r="L216" s="4">
         <v>3</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="8">
         <v>248</v>
       </c>
     </row>
@@ -9595,7 +9609,7 @@
       <c r="L217" s="4">
         <v>1</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>177</v>
       </c>
     </row>
@@ -9636,7 +9650,7 @@
       <c r="L218" s="4">
         <v>1</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>182</v>
       </c>
     </row>
@@ -9675,7 +9689,7 @@
       <c r="L219" s="4">
         <v>2</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>127</v>
       </c>
     </row>
@@ -9716,7 +9730,7 @@
       <c r="L220" s="4">
         <v>1</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>194</v>
       </c>
     </row>
@@ -9755,7 +9769,7 @@
       <c r="L221" s="4">
         <v>2</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>140</v>
       </c>
     </row>
@@ -9796,7 +9810,7 @@
       <c r="L222" s="4">
         <v>5</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>229</v>
       </c>
     </row>
@@ -9835,7 +9849,7 @@
       <c r="L223" s="4">
         <v>5</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>176</v>
       </c>
     </row>
@@ -9876,7 +9890,7 @@
       <c r="L224" s="4">
         <v>6</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>247</v>
       </c>
     </row>
@@ -9915,7 +9929,7 @@
       <c r="L225" s="4">
         <v>1</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>238</v>
       </c>
     </row>
@@ -9956,7 +9970,7 @@
       <c r="L226" s="4">
         <v>6</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>343</v>
       </c>
     </row>
@@ -9995,7 +10009,7 @@
       <c r="L227" s="4">
         <v>4</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>272</v>
       </c>
     </row>
@@ -10036,7 +10050,7 @@
       <c r="L228" s="4">
         <v>1</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>391</v>
       </c>
     </row>
@@ -10075,7 +10089,7 @@
       <c r="L229" s="4">
         <v>3</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>361</v>
       </c>
     </row>
@@ -10116,7 +10130,7 @@
       <c r="L230" s="4">
         <v>6</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>384</v>
       </c>
     </row>
@@ -10155,7 +10169,7 @@
       <c r="L231" s="4">
         <v>3</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>334</v>
       </c>
     </row>
@@ -10196,7 +10210,7 @@
       <c r="L232" s="4">
         <v>3</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>345</v>
       </c>
     </row>
@@ -10235,7 +10249,7 @@
       <c r="L233" s="4">
         <v>2</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>360</v>
       </c>
     </row>
@@ -10276,7 +10290,7 @@
       <c r="L234" s="4">
         <v>5</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>252</v>
       </c>
     </row>
@@ -10315,7 +10329,7 @@
       <c r="L235" s="4">
         <v>4</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>293</v>
       </c>
     </row>
@@ -10356,7 +10370,7 @@
       <c r="L236" s="4">
         <v>3</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>235</v>
       </c>
     </row>
@@ -10395,7 +10409,7 @@
       <c r="L237" s="4">
         <v>6</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="8">
         <v>444</v>
       </c>
     </row>
@@ -10403,46 +10417,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>451</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="8">
         <v>473</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="F238" s="5">
+      <c r="E238" s="6">
+        <v>2185</v>
+      </c>
+      <c r="F238" s="8">
         <v>588</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="8">
         <v>857</v>
       </c>
-      <c r="H238" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="I238" s="5">
+      <c r="H238" s="6">
+        <v>1390</v>
+      </c>
+      <c r="I238" s="8">
         <v>531</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="8">
         <v>27</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>4</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>83</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.5890000000000004</v>
+      <c r="M238" s="6">
+        <v>6589</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10528,7 @@
       <c r="L240" s="4">
         <v>5</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="8">
         <v>194</v>
       </c>
     </row>
@@ -10553,7 +10567,7 @@
       <c r="L241" s="4">
         <v>6</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="8">
         <v>179</v>
       </c>
     </row>
@@ -10594,7 +10608,7 @@
       <c r="L242" s="4">
         <v>3</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>147</v>
       </c>
     </row>
@@ -10633,7 +10647,7 @@
       <c r="L243" s="4">
         <v>4</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>110</v>
       </c>
     </row>
@@ -10674,7 +10688,7 @@
       <c r="L244" s="4">
         <v>7</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>112</v>
       </c>
     </row>
@@ -10713,7 +10727,7 @@
       <c r="L245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>71</v>
       </c>
     </row>
@@ -10754,7 +10768,7 @@
       <c r="L246" s="4">
         <v>2</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>123</v>
       </c>
     </row>
@@ -10793,7 +10807,7 @@
       <c r="L247" s="4">
         <v>2</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>80</v>
       </c>
     </row>
@@ -10834,7 +10848,7 @@
       <c r="L248" s="4">
         <v>4</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>163</v>
       </c>
     </row>
@@ -10873,7 +10887,7 @@
       <c r="L249" s="4">
         <v>3</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>101</v>
       </c>
     </row>
@@ -10914,7 +10928,7 @@
       <c r="L250" s="4">
         <v>7</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>146</v>
       </c>
     </row>
@@ -10953,7 +10967,7 @@
       <c r="L251" s="4">
         <v>5</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>120</v>
       </c>
     </row>
@@ -10994,7 +11008,7 @@
       <c r="L252" s="4">
         <v>3</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>142</v>
       </c>
     </row>
@@ -11033,7 +11047,7 @@
       <c r="L253" s="4">
         <v>6</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>121</v>
       </c>
     </row>
@@ -11074,7 +11088,7 @@
       <c r="L254" s="4">
         <v>9</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>191</v>
       </c>
     </row>
@@ -11113,7 +11127,7 @@
       <c r="L255" s="4">
         <v>7</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>159</v>
       </c>
     </row>
@@ -11154,7 +11168,7 @@
       <c r="L256" s="4">
         <v>1</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>178</v>
       </c>
     </row>
@@ -11193,7 +11207,7 @@
       <c r="L257" s="4">
         <v>3</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>194</v>
       </c>
     </row>
@@ -11234,7 +11248,7 @@
       <c r="L258" s="4">
         <v>10</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>166</v>
       </c>
     </row>
@@ -11273,7 +11287,7 @@
       <c r="L259" s="4">
         <v>6</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>221</v>
       </c>
     </row>
@@ -11314,7 +11328,7 @@
       <c r="L260" s="4">
         <v>4</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>160</v>
       </c>
     </row>
@@ -11353,7 +11367,7 @@
       <c r="L261" s="4">
         <v>5</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>152</v>
       </c>
     </row>
@@ -11394,7 +11408,7 @@
       <c r="L262" s="4">
         <v>5</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>195</v>
       </c>
     </row>
@@ -11433,7 +11447,7 @@
       <c r="L263" s="4">
         <v>13</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>322</v>
       </c>
     </row>
@@ -11441,46 +11455,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>230</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="8">
         <v>333</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.089</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>1089</v>
+      </c>
+      <c r="F264" s="8">
         <v>247</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="8">
         <v>363</v>
       </c>
-      <c r="H264" s="5">
+      <c r="H264" s="8">
         <v>896</v>
       </c>
-      <c r="I264" s="5">
+      <c r="I264" s="8">
         <v>431</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="8">
         <v>32</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>6</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>120</v>
       </c>
-      <c r="M264" s="5">
-        <v>3.7469999999999999</v>
+      <c r="M264" s="6">
+        <v>3747</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11552,8 +11566,8 @@
       <c r="L266" s="4">
         <v>8</v>
       </c>
-      <c r="M266" s="5">
-        <v>1.159</v>
+      <c r="M266" s="6">
+        <v>1159</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11591,8 +11605,8 @@
       <c r="L267" s="4">
         <v>6</v>
       </c>
-      <c r="M267" s="5">
-        <v>1.014</v>
+      <c r="M267" s="6">
+        <v>1014</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11632,8 +11646,8 @@
       <c r="L268" s="4">
         <v>5</v>
       </c>
-      <c r="M268" s="5">
-        <v>1.0229999999999999</v>
+      <c r="M268" s="6">
+        <v>1023</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11671,7 +11685,7 @@
       <c r="L269" s="4">
         <v>2</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="8">
         <v>651</v>
       </c>
     </row>
@@ -11712,7 +11726,7 @@
       <c r="L270" s="4">
         <v>4</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="8">
         <v>770</v>
       </c>
     </row>
@@ -11751,7 +11765,7 @@
       <c r="L271" s="4">
         <v>5</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="8">
         <v>580</v>
       </c>
     </row>
@@ -11792,7 +11806,7 @@
       <c r="L272" s="4">
         <v>5</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="8">
         <v>787</v>
       </c>
     </row>
@@ -11831,7 +11845,7 @@
       <c r="L273" s="4">
         <v>6</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="8">
         <v>578</v>
       </c>
     </row>
@@ -11872,7 +11886,7 @@
       <c r="L274" s="4">
         <v>7</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="8">
         <v>716</v>
       </c>
     </row>
@@ -11911,7 +11925,7 @@
       <c r="L275" s="4">
         <v>6</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="8">
         <v>638</v>
       </c>
     </row>
@@ -11952,7 +11966,7 @@
       <c r="L276" s="4">
         <v>16</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="8">
         <v>712</v>
       </c>
     </row>
@@ -11991,7 +12005,7 @@
       <c r="L277" s="4">
         <v>5</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="8">
         <v>588</v>
       </c>
     </row>
@@ -12032,7 +12046,7 @@
       <c r="L278" s="4">
         <v>15</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="8">
         <v>767</v>
       </c>
     </row>
@@ -12071,7 +12085,7 @@
       <c r="L279" s="4">
         <v>18</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="8">
         <v>787</v>
       </c>
     </row>
@@ -12112,7 +12126,7 @@
       <c r="L280" s="4">
         <v>30</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="8">
         <v>972</v>
       </c>
     </row>
@@ -12151,7 +12165,7 @@
       <c r="L281" s="4">
         <v>23</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="8">
         <v>908</v>
       </c>
     </row>
@@ -12192,8 +12206,8 @@
       <c r="L282" s="4">
         <v>22</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.014</v>
+      <c r="M282" s="6">
+        <v>1014</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12231,8 +12245,8 @@
       <c r="L283" s="4">
         <v>16</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M283" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12272,7 +12286,7 @@
       <c r="L284" s="4">
         <v>22</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="8">
         <v>987</v>
       </c>
     </row>
@@ -12311,8 +12325,8 @@
       <c r="L285" s="4">
         <v>27</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.054</v>
+      <c r="M285" s="6">
+        <v>1054</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12352,7 +12366,7 @@
       <c r="L286" s="4">
         <v>15</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="8">
         <v>728</v>
       </c>
     </row>
@@ -12391,7 +12405,7 @@
       <c r="L287" s="4">
         <v>16</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="8">
         <v>808</v>
       </c>
     </row>
@@ -12432,7 +12446,7 @@
       <c r="L288" s="4">
         <v>19</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="8">
         <v>803</v>
       </c>
     </row>
@@ -12471,54 +12485,54 @@
       <c r="L289" s="4">
         <v>17</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.462</v>
+      <c r="M289" s="6">
+        <v>1462</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="8">
         <v>880</v>
       </c>
-      <c r="D290" s="5">
-        <v>1.171</v>
-      </c>
-      <c r="E290" s="5">
-        <v>5.64</v>
-      </c>
-      <c r="F290" s="5">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="G290" s="5">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="H290" s="5">
-        <v>5.2610000000000001</v>
-      </c>
-      <c r="I290" s="5">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="D290" s="6">
+        <v>1171</v>
+      </c>
+      <c r="E290" s="6">
+        <v>5640</v>
+      </c>
+      <c r="F290" s="6">
+        <v>1469</v>
+      </c>
+      <c r="G290" s="6">
+        <v>2261</v>
+      </c>
+      <c r="H290" s="6">
+        <v>5261</v>
+      </c>
+      <c r="I290" s="6">
+        <v>3317</v>
+      </c>
+      <c r="J290" s="8">
         <v>180</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>17</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>315</v>
       </c>
-      <c r="M290" s="5">
-        <v>20.510999999999999</v>
+      <c r="M290" s="6">
+        <v>20511</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12575,8 +12589,8 @@
       <c r="G292" s="4">
         <v>478</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.42</v>
+      <c r="H292" s="5">
+        <v>1420</v>
       </c>
       <c r="I292" s="4">
         <v>270</v>
@@ -12590,8 +12604,8 @@
       <c r="L292" s="4">
         <v>22</v>
       </c>
-      <c r="M292" s="5">
-        <v>2.214</v>
+      <c r="M292" s="6">
+        <v>2214</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12614,8 +12628,8 @@
       <c r="G293" s="4">
         <v>458</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H293" s="5">
+        <v>1176</v>
       </c>
       <c r="I293" s="4">
         <v>385</v>
@@ -12629,8 +12643,8 @@
       <c r="L293" s="4">
         <v>8</v>
       </c>
-      <c r="M293" s="5">
-        <v>2.1190000000000002</v>
+      <c r="M293" s="6">
+        <v>2119</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12670,8 +12684,8 @@
       <c r="L294" s="4">
         <v>10</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.5489999999999999</v>
+      <c r="M294" s="6">
+        <v>1549</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12709,8 +12723,8 @@
       <c r="L295" s="4">
         <v>4</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.4830000000000001</v>
+      <c r="M295" s="6">
+        <v>1483</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12750,8 +12764,8 @@
       <c r="L296" s="4">
         <v>7</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M296" s="6">
+        <v>1324</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12789,8 +12803,8 @@
       <c r="L297" s="4">
         <v>10</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.2609999999999999</v>
+      <c r="M297" s="6">
+        <v>1261</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12830,8 +12844,8 @@
       <c r="L298" s="4">
         <v>6</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.2490000000000001</v>
+      <c r="M298" s="6">
+        <v>1249</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12869,8 +12883,8 @@
       <c r="L299" s="4">
         <v>7</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.19</v>
+      <c r="M299" s="6">
+        <v>1190</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12910,8 +12924,8 @@
       <c r="L300" s="4">
         <v>15</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.3460000000000001</v>
+      <c r="M300" s="6">
+        <v>1346</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12949,8 +12963,8 @@
       <c r="L301" s="4">
         <v>6</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.3089999999999999</v>
+      <c r="M301" s="6">
+        <v>1309</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12990,8 +13004,8 @@
       <c r="L302" s="4">
         <v>12</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.395</v>
+      <c r="M302" s="6">
+        <v>1395</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13029,8 +13043,8 @@
       <c r="L303" s="4">
         <v>12</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.298</v>
+      <c r="M303" s="6">
+        <v>1298</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13070,8 +13084,8 @@
       <c r="L304" s="4">
         <v>14</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M304" s="6">
+        <v>1493</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13109,8 +13123,8 @@
       <c r="L305" s="4">
         <v>20</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.5309999999999999</v>
+      <c r="M305" s="6">
+        <v>1531</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13150,8 +13164,8 @@
       <c r="L306" s="4">
         <v>17</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.5660000000000001</v>
+      <c r="M306" s="6">
+        <v>1566</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13165,8 +13179,8 @@
       <c r="D307" s="4">
         <v>98</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.0329999999999999</v>
+      <c r="E307" s="5">
+        <v>1033</v>
       </c>
       <c r="F307" s="4">
         <v>140</v>
@@ -13189,8 +13203,8 @@
       <c r="L307" s="4">
         <v>17</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.653</v>
+      <c r="M307" s="6">
+        <v>1653</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13230,8 +13244,8 @@
       <c r="L308" s="4">
         <v>17</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.4810000000000001</v>
+      <c r="M308" s="6">
+        <v>1481</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13269,8 +13283,8 @@
       <c r="L309" s="4">
         <v>15</v>
       </c>
-      <c r="M309" s="5">
-        <v>1.444</v>
+      <c r="M309" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13310,8 +13324,8 @@
       <c r="L310" s="4">
         <v>22</v>
       </c>
-      <c r="M310" s="5">
-        <v>1.323</v>
+      <c r="M310" s="6">
+        <v>1323</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13349,8 +13363,8 @@
       <c r="L311" s="4">
         <v>18</v>
       </c>
-      <c r="M311" s="5">
-        <v>1.347</v>
+      <c r="M311" s="6">
+        <v>1347</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13390,7 +13404,7 @@
       <c r="L312" s="4">
         <v>16</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>859</v>
       </c>
     </row>
@@ -13429,8 +13443,8 @@
       <c r="L313" s="4">
         <v>15</v>
       </c>
-      <c r="M313" s="5">
-        <v>1.014</v>
+      <c r="M313" s="6">
+        <v>1014</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13470,7 +13484,7 @@
       <c r="L314" s="4">
         <v>17</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>937</v>
       </c>
     </row>
@@ -13509,54 +13523,54 @@
       <c r="L315" s="4">
         <v>25</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.766</v>
+      <c r="M315" s="6">
+        <v>1766</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="D316" s="5">
-        <v>1.788</v>
-      </c>
-      <c r="E316" s="5">
-        <v>9</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.3820000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>4.7759999999999998</v>
-      </c>
-      <c r="H316" s="5">
-        <v>9.0380000000000003</v>
-      </c>
-      <c r="I316" s="5">
-        <v>5.1479999999999997</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
+        <v>1243</v>
+      </c>
+      <c r="D316" s="6">
+        <v>1788</v>
+      </c>
+      <c r="E316" s="6">
+        <v>9000</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2382</v>
+      </c>
+      <c r="G316" s="6">
+        <v>4776</v>
+      </c>
+      <c r="H316" s="6">
+        <v>9038</v>
+      </c>
+      <c r="I316" s="6">
+        <v>5148</v>
+      </c>
+      <c r="J316" s="8">
         <v>409</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="8">
         <v>35</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>332</v>
       </c>
-      <c r="M316" s="5">
-        <v>34.151000000000003</v>
+      <c r="M316" s="6">
+        <v>34151</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13610,14 +13624,14 @@
       <c r="F318" s="4">
         <v>1</v>
       </c>
-      <c r="G318" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H318" s="4">
-        <v>10.465999999999999</v>
-      </c>
-      <c r="I318" s="4">
-        <v>2.1070000000000002</v>
+      <c r="G318" s="5">
+        <v>2550</v>
+      </c>
+      <c r="H318" s="5">
+        <v>10466</v>
+      </c>
+      <c r="I318" s="5">
+        <v>2107</v>
       </c>
       <c r="J318" s="4">
         <v>29</v>
@@ -13628,8 +13642,8 @@
       <c r="L318" s="4">
         <v>121</v>
       </c>
-      <c r="M318" s="5">
-        <v>15.340999999999999</v>
+      <c r="M318" s="6">
+        <v>15341</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13649,14 +13663,14 @@
       <c r="F319" s="4">
         <v>2</v>
       </c>
-      <c r="G319" s="4">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="H319" s="4">
-        <v>10.551</v>
-      </c>
-      <c r="I319" s="4">
-        <v>3.3759999999999999</v>
+      <c r="G319" s="5">
+        <v>1701</v>
+      </c>
+      <c r="H319" s="5">
+        <v>10551</v>
+      </c>
+      <c r="I319" s="5">
+        <v>3376</v>
       </c>
       <c r="J319" s="4">
         <v>47</v>
@@ -13667,8 +13681,8 @@
       <c r="L319" s="4">
         <v>63</v>
       </c>
-      <c r="M319" s="5">
-        <v>15.831</v>
+      <c r="M319" s="6">
+        <v>15831</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13690,14 +13704,14 @@
       <c r="F320" s="4">
         <v>24</v>
       </c>
-      <c r="G320" s="4">
-        <v>1.5289999999999999</v>
-      </c>
-      <c r="H320" s="4">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="I320" s="4">
-        <v>4.9550000000000001</v>
+      <c r="G320" s="5">
+        <v>1529</v>
+      </c>
+      <c r="H320" s="5">
+        <v>3664</v>
+      </c>
+      <c r="I320" s="5">
+        <v>4955</v>
       </c>
       <c r="J320" s="4">
         <v>462</v>
@@ -13708,8 +13722,8 @@
       <c r="L320" s="4">
         <v>83</v>
       </c>
-      <c r="M320" s="5">
-        <v>10.792999999999999</v>
+      <c r="M320" s="6">
+        <v>10793</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13729,14 +13743,14 @@
       <c r="F321" s="4">
         <v>27</v>
       </c>
-      <c r="G321" s="4">
-        <v>1.008</v>
-      </c>
-      <c r="H321" s="4">
-        <v>2.726</v>
-      </c>
-      <c r="I321" s="4">
-        <v>6.5030000000000001</v>
+      <c r="G321" s="5">
+        <v>1008</v>
+      </c>
+      <c r="H321" s="5">
+        <v>2726</v>
+      </c>
+      <c r="I321" s="5">
+        <v>6503</v>
       </c>
       <c r="J321" s="4">
         <v>741</v>
@@ -13747,8 +13761,8 @@
       <c r="L321" s="4">
         <v>91</v>
       </c>
-      <c r="M321" s="5">
-        <v>11.204000000000001</v>
+      <c r="M321" s="6">
+        <v>11204</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13773,11 +13787,11 @@
       <c r="G322" s="4">
         <v>741</v>
       </c>
-      <c r="H322" s="4">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="I322" s="4">
-        <v>4.4619999999999997</v>
+      <c r="H322" s="5">
+        <v>3659</v>
+      </c>
+      <c r="I322" s="5">
+        <v>4462</v>
       </c>
       <c r="J322" s="4">
         <v>664</v>
@@ -13788,8 +13802,8 @@
       <c r="L322" s="4">
         <v>82</v>
       </c>
-      <c r="M322" s="5">
-        <v>10.582000000000001</v>
+      <c r="M322" s="6">
+        <v>10582</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13812,11 +13826,11 @@
       <c r="G323" s="4">
         <v>594</v>
       </c>
-      <c r="H323" s="4">
-        <v>3.3090000000000002</v>
-      </c>
-      <c r="I323" s="4">
-        <v>5.617</v>
+      <c r="H323" s="5">
+        <v>3309</v>
+      </c>
+      <c r="I323" s="5">
+        <v>5617</v>
       </c>
       <c r="J323" s="4">
         <v>834</v>
@@ -13827,8 +13841,8 @@
       <c r="L323" s="4">
         <v>108</v>
       </c>
-      <c r="M323" s="5">
-        <v>11.515000000000001</v>
+      <c r="M323" s="6">
+        <v>11515</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13847,17 +13861,17 @@
       <c r="E324" s="4">
         <v>326</v>
       </c>
-      <c r="F324" s="4">
-        <v>1.2250000000000001</v>
+      <c r="F324" s="5">
+        <v>1225</v>
       </c>
       <c r="G324" s="4">
         <v>779</v>
       </c>
-      <c r="H324" s="4">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="I324" s="4">
-        <v>3.964</v>
+      <c r="H324" s="5">
+        <v>4805</v>
+      </c>
+      <c r="I324" s="5">
+        <v>3964</v>
       </c>
       <c r="J324" s="4">
         <v>704</v>
@@ -13868,8 +13882,8 @@
       <c r="L324" s="4">
         <v>114</v>
       </c>
-      <c r="M324" s="5">
-        <v>12.145</v>
+      <c r="M324" s="6">
+        <v>12145</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13892,11 +13906,11 @@
       <c r="G325" s="4">
         <v>827</v>
       </c>
-      <c r="H325" s="4">
-        <v>4.7140000000000004</v>
-      </c>
-      <c r="I325" s="4">
-        <v>4.673</v>
+      <c r="H325" s="5">
+        <v>4714</v>
+      </c>
+      <c r="I325" s="5">
+        <v>4673</v>
       </c>
       <c r="J325" s="4">
         <v>746</v>
@@ -13907,8 +13921,8 @@
       <c r="L325" s="4">
         <v>126</v>
       </c>
-      <c r="M325" s="5">
-        <v>12.949</v>
+      <c r="M325" s="6">
+        <v>12949</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13930,14 +13944,14 @@
       <c r="F326" s="4">
         <v>978</v>
       </c>
-      <c r="G326" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="H326" s="4">
-        <v>5.0490000000000004</v>
-      </c>
-      <c r="I326" s="4">
-        <v>3.4849999999999999</v>
+      <c r="G326" s="5">
+        <v>1530</v>
+      </c>
+      <c r="H326" s="5">
+        <v>5049</v>
+      </c>
+      <c r="I326" s="5">
+        <v>3485</v>
       </c>
       <c r="J326" s="4">
         <v>669</v>
@@ -13948,8 +13962,8 @@
       <c r="L326" s="4">
         <v>101</v>
       </c>
-      <c r="M326" s="5">
-        <v>12.731999999999999</v>
+      <c r="M326" s="6">
+        <v>12732</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13963,20 +13977,20 @@
       <c r="D327" s="4">
         <v>36</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.357</v>
+      <c r="E327" s="5">
+        <v>1357</v>
       </c>
       <c r="F327" s="4">
         <v>794</v>
       </c>
-      <c r="G327" s="4">
-        <v>1.417</v>
-      </c>
-      <c r="H327" s="4">
-        <v>5.117</v>
-      </c>
-      <c r="I327" s="4">
-        <v>3.665</v>
+      <c r="G327" s="5">
+        <v>1417</v>
+      </c>
+      <c r="H327" s="5">
+        <v>5117</v>
+      </c>
+      <c r="I327" s="5">
+        <v>3665</v>
       </c>
       <c r="J327" s="4">
         <v>608</v>
@@ -13987,8 +14001,8 @@
       <c r="L327" s="4">
         <v>118</v>
       </c>
-      <c r="M327" s="5">
-        <v>13.324</v>
+      <c r="M327" s="6">
+        <v>13324</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14007,17 +14021,17 @@
       <c r="E328" s="4">
         <v>983</v>
       </c>
-      <c r="F328" s="4">
-        <v>1.24</v>
-      </c>
-      <c r="G328" s="4">
-        <v>1.262</v>
-      </c>
-      <c r="H328" s="4">
-        <v>4.2050000000000001</v>
-      </c>
-      <c r="I328" s="4">
-        <v>3.0880000000000001</v>
+      <c r="F328" s="5">
+        <v>1240</v>
+      </c>
+      <c r="G328" s="5">
+        <v>1262</v>
+      </c>
+      <c r="H328" s="5">
+        <v>4205</v>
+      </c>
+      <c r="I328" s="5">
+        <v>3088</v>
       </c>
       <c r="J328" s="4">
         <v>495</v>
@@ -14028,8 +14042,8 @@
       <c r="L328" s="4">
         <v>109</v>
       </c>
-      <c r="M328" s="5">
-        <v>11.598000000000001</v>
+      <c r="M328" s="6">
+        <v>11598</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14043,20 +14057,20 @@
       <c r="D329" s="4">
         <v>37</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="F329" s="4">
-        <v>1.079</v>
-      </c>
-      <c r="G329" s="4">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="H329" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="I329" s="4">
-        <v>2.7320000000000002</v>
+      <c r="E329" s="5">
+        <v>1809</v>
+      </c>
+      <c r="F329" s="5">
+        <v>1079</v>
+      </c>
+      <c r="G329" s="5">
+        <v>1455</v>
+      </c>
+      <c r="H329" s="5">
+        <v>4250</v>
+      </c>
+      <c r="I329" s="5">
+        <v>2732</v>
       </c>
       <c r="J329" s="4">
         <v>349</v>
@@ -14067,8 +14081,8 @@
       <c r="L329" s="4">
         <v>156</v>
       </c>
-      <c r="M329" s="5">
-        <v>12.053000000000001</v>
+      <c r="M329" s="6">
+        <v>12053</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14084,20 +14098,20 @@
       <c r="D330" s="4">
         <v>18</v>
       </c>
-      <c r="E330" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="F330" s="4">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="G330" s="4">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="H330" s="4">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="I330" s="4">
-        <v>2.399</v>
+      <c r="E330" s="5">
+        <v>1126</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1356</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1434</v>
+      </c>
+      <c r="H330" s="5">
+        <v>3364</v>
+      </c>
+      <c r="I330" s="5">
+        <v>2399</v>
       </c>
       <c r="J330" s="4">
         <v>401</v>
@@ -14108,8 +14122,8 @@
       <c r="L330" s="4">
         <v>128</v>
       </c>
-      <c r="M330" s="5">
-        <v>10.449</v>
+      <c r="M330" s="6">
+        <v>10449</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14123,20 +14137,20 @@
       <c r="D331" s="4">
         <v>91</v>
       </c>
-      <c r="E331" s="4">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="F331" s="4">
-        <v>1.157</v>
-      </c>
-      <c r="G331" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="H331" s="4">
-        <v>3.423</v>
-      </c>
-      <c r="I331" s="4">
-        <v>1.577</v>
+      <c r="E331" s="5">
+        <v>2461</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1157</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1419</v>
+      </c>
+      <c r="H331" s="5">
+        <v>3423</v>
+      </c>
+      <c r="I331" s="5">
+        <v>1577</v>
       </c>
       <c r="J331" s="4">
         <v>199</v>
@@ -14147,8 +14161,8 @@
       <c r="L331" s="4">
         <v>167</v>
       </c>
-      <c r="M331" s="5">
-        <v>10.643000000000001</v>
+      <c r="M331" s="6">
+        <v>10643</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14164,20 +14178,20 @@
       <c r="D332" s="4">
         <v>19</v>
       </c>
-      <c r="E332" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="F332" s="4">
-        <v>1.123</v>
-      </c>
-      <c r="G332" s="4">
-        <v>1.373</v>
-      </c>
-      <c r="H332" s="4">
-        <v>2.794</v>
-      </c>
-      <c r="I332" s="4">
-        <v>1.845</v>
+      <c r="E332" s="5">
+        <v>1522</v>
+      </c>
+      <c r="F332" s="5">
+        <v>1123</v>
+      </c>
+      <c r="G332" s="5">
+        <v>1373</v>
+      </c>
+      <c r="H332" s="5">
+        <v>2794</v>
+      </c>
+      <c r="I332" s="5">
+        <v>1845</v>
       </c>
       <c r="J332" s="4">
         <v>236</v>
@@ -14188,8 +14202,8 @@
       <c r="L332" s="4">
         <v>166</v>
       </c>
-      <c r="M332" s="5">
-        <v>9.2759999999999998</v>
+      <c r="M332" s="6">
+        <v>9276</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14203,17 +14217,17 @@
       <c r="D333" s="4">
         <v>248</v>
       </c>
-      <c r="E333" s="4">
-        <v>3.4089999999999998</v>
+      <c r="E333" s="5">
+        <v>3409</v>
       </c>
       <c r="F333" s="4">
         <v>889</v>
       </c>
-      <c r="G333" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="H333" s="4">
-        <v>2.6920000000000002</v>
+      <c r="G333" s="5">
+        <v>1202</v>
+      </c>
+      <c r="H333" s="5">
+        <v>2692</v>
       </c>
       <c r="I333" s="4">
         <v>984</v>
@@ -14227,8 +14241,8 @@
       <c r="L333" s="4">
         <v>191</v>
       </c>
-      <c r="M333" s="5">
-        <v>9.907</v>
+      <c r="M333" s="6">
+        <v>9907</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14244,8 +14258,8 @@
       <c r="D334" s="4">
         <v>63</v>
       </c>
-      <c r="E334" s="4">
-        <v>2.3239999999999998</v>
+      <c r="E334" s="5">
+        <v>2324</v>
       </c>
       <c r="F334" s="4">
         <v>695</v>
@@ -14253,11 +14267,11 @@
       <c r="G334" s="4">
         <v>990</v>
       </c>
-      <c r="H334" s="4">
-        <v>2.593</v>
-      </c>
-      <c r="I334" s="4">
-        <v>1.448</v>
+      <c r="H334" s="5">
+        <v>2593</v>
+      </c>
+      <c r="I334" s="5">
+        <v>1448</v>
       </c>
       <c r="J334" s="4">
         <v>122</v>
@@ -14268,8 +14282,8 @@
       <c r="L334" s="4">
         <v>154</v>
       </c>
-      <c r="M334" s="5">
-        <v>8.5449999999999999</v>
+      <c r="M334" s="6">
+        <v>8545</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14283,8 +14297,8 @@
       <c r="D335" s="4">
         <v>595</v>
       </c>
-      <c r="E335" s="4">
-        <v>3.72</v>
+      <c r="E335" s="5">
+        <v>3720</v>
       </c>
       <c r="F335" s="4">
         <v>479</v>
@@ -14292,8 +14306,8 @@
       <c r="G335" s="4">
         <v>778</v>
       </c>
-      <c r="H335" s="4">
-        <v>1.9239999999999999</v>
+      <c r="H335" s="5">
+        <v>1924</v>
       </c>
       <c r="I335" s="4">
         <v>639</v>
@@ -14307,8 +14321,8 @@
       <c r="L335" s="4">
         <v>173</v>
       </c>
-      <c r="M335" s="5">
-        <v>8.6660000000000004</v>
+      <c r="M335" s="6">
+        <v>8666</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14324,8 +14338,8 @@
       <c r="D336" s="4">
         <v>81</v>
       </c>
-      <c r="E336" s="4">
-        <v>2.472</v>
+      <c r="E336" s="5">
+        <v>2472</v>
       </c>
       <c r="F336" s="4">
         <v>287</v>
@@ -14333,11 +14347,11 @@
       <c r="G336" s="4">
         <v>742</v>
       </c>
-      <c r="H336" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="I336" s="4">
-        <v>1.3260000000000001</v>
+      <c r="H336" s="5">
+        <v>1419</v>
+      </c>
+      <c r="I336" s="5">
+        <v>1326</v>
       </c>
       <c r="J336" s="4">
         <v>74</v>
@@ -14348,8 +14362,8 @@
       <c r="L336" s="4">
         <v>149</v>
       </c>
-      <c r="M336" s="5">
-        <v>6.6369999999999996</v>
+      <c r="M336" s="6">
+        <v>6637</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14363,8 +14377,8 @@
       <c r="D337" s="4">
         <v>994</v>
       </c>
-      <c r="E337" s="4">
-        <v>3.286</v>
+      <c r="E337" s="5">
+        <v>3286</v>
       </c>
       <c r="F337" s="4">
         <v>158</v>
@@ -14387,8 +14401,8 @@
       <c r="L337" s="4">
         <v>137</v>
       </c>
-      <c r="M337" s="5">
-        <v>7.1639999999999997</v>
+      <c r="M337" s="6">
+        <v>7164</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14404,8 +14418,8 @@
       <c r="D338" s="4">
         <v>124</v>
       </c>
-      <c r="E338" s="4">
-        <v>1.82</v>
+      <c r="E338" s="5">
+        <v>1820</v>
       </c>
       <c r="F338" s="4">
         <v>83</v>
@@ -14428,8 +14442,8 @@
       <c r="L338" s="4">
         <v>88</v>
       </c>
-      <c r="M338" s="5">
-        <v>4.258</v>
+      <c r="M338" s="6">
+        <v>4258</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14443,8 +14457,8 @@
       <c r="D339" s="4">
         <v>980</v>
       </c>
-      <c r="E339" s="4">
-        <v>1.7929999999999999</v>
+      <c r="E339" s="5">
+        <v>1793</v>
       </c>
       <c r="F339" s="4">
         <v>31</v>
@@ -14467,8 +14481,8 @@
       <c r="L339" s="4">
         <v>98</v>
       </c>
-      <c r="M339" s="5">
-        <v>4.6029999999999998</v>
+      <c r="M339" s="6">
+        <v>4603</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14484,8 +14498,8 @@
       <c r="D340" s="4">
         <v>446</v>
       </c>
-      <c r="E340" s="4">
-        <v>2.133</v>
+      <c r="E340" s="5">
+        <v>2133</v>
       </c>
       <c r="F340" s="4">
         <v>32</v>
@@ -14508,8 +14522,8 @@
       <c r="L340" s="4">
         <v>119</v>
       </c>
-      <c r="M340" s="5">
-        <v>4.3819999999999997</v>
+      <c r="M340" s="6">
+        <v>4382</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14517,14 +14531,14 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="D341" s="4">
-        <v>1.966</v>
-      </c>
-      <c r="E341" s="4">
-        <v>1.9450000000000001</v>
+      <c r="C341" s="5">
+        <v>2584</v>
+      </c>
+      <c r="D341" s="5">
+        <v>1966</v>
+      </c>
+      <c r="E341" s="5">
+        <v>1945</v>
       </c>
       <c r="F341" s="4">
         <v>13</v>
@@ -14547,54 +14561,54 @@
       <c r="L341" s="4">
         <v>155</v>
       </c>
-      <c r="M341" s="5">
-        <v>7.3259999999999996</v>
+      <c r="M341" s="6">
+        <v>7326</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>4.9630000000000001</v>
-      </c>
-      <c r="D342" s="5">
-        <v>6.1420000000000003</v>
-      </c>
-      <c r="E342" s="5">
-        <v>34.116</v>
-      </c>
-      <c r="F342" s="5">
-        <v>14.228</v>
-      </c>
-      <c r="G342" s="5">
-        <v>25.059000000000001</v>
-      </c>
-      <c r="H342" s="5">
-        <v>83.606999999999999</v>
-      </c>
-      <c r="I342" s="5">
-        <v>61.180999999999997</v>
-      </c>
-      <c r="J342" s="5">
-        <v>7.6449999999999996</v>
-      </c>
-      <c r="K342" s="5">
-        <v>1.9850000000000001</v>
-      </c>
-      <c r="L342" s="5">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="M342" s="5">
-        <v>241.923</v>
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
+        <v>4963</v>
+      </c>
+      <c r="D342" s="6">
+        <v>6142</v>
+      </c>
+      <c r="E342" s="6">
+        <v>34116</v>
+      </c>
+      <c r="F342" s="6">
+        <v>14228</v>
+      </c>
+      <c r="G342" s="6">
+        <v>25059</v>
+      </c>
+      <c r="H342" s="6">
+        <v>83607</v>
+      </c>
+      <c r="I342" s="6">
+        <v>61181</v>
+      </c>
+      <c r="J342" s="6">
+        <v>7645</v>
+      </c>
+      <c r="K342" s="6">
+        <v>1985</v>
+      </c>
+      <c r="L342" s="6">
+        <v>2997</v>
+      </c>
+      <c r="M342" s="6">
+        <v>241923</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14666,8 +14680,8 @@
       <c r="L344" s="4">
         <v>15</v>
       </c>
-      <c r="M344" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M344" s="6">
+        <v>1289</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14705,8 +14719,8 @@
       <c r="L345" s="4">
         <v>6</v>
       </c>
-      <c r="M345" s="5">
-        <v>1.177</v>
+      <c r="M345" s="6">
+        <v>1177</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14746,7 +14760,7 @@
       <c r="L346" s="4">
         <v>3</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="8">
         <v>833</v>
       </c>
     </row>
@@ -14785,7 +14799,7 @@
       <c r="L347" s="4">
         <v>7</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="8">
         <v>821</v>
       </c>
     </row>
@@ -14826,7 +14840,7 @@
       <c r="L348" s="4">
         <v>5</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="8">
         <v>770</v>
       </c>
     </row>
@@ -14865,7 +14879,7 @@
       <c r="L349" s="4">
         <v>5</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="8">
         <v>815</v>
       </c>
     </row>
@@ -14906,7 +14920,7 @@
       <c r="L350" s="4">
         <v>5</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="8">
         <v>861</v>
       </c>
     </row>
@@ -14945,7 +14959,7 @@
       <c r="L351" s="4">
         <v>6</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="8">
         <v>761</v>
       </c>
     </row>
@@ -14986,7 +15000,7 @@
       <c r="L352" s="4">
         <v>4</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="8">
         <v>846</v>
       </c>
     </row>
@@ -15025,7 +15039,7 @@
       <c r="L353" s="4">
         <v>5</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="8">
         <v>806</v>
       </c>
     </row>
@@ -15066,7 +15080,7 @@
       <c r="L354" s="4">
         <v>9</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="8">
         <v>799</v>
       </c>
     </row>
@@ -15105,7 +15119,7 @@
       <c r="L355" s="4">
         <v>11</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="8">
         <v>784</v>
       </c>
     </row>
@@ -15146,7 +15160,7 @@
       <c r="L356" s="4">
         <v>15</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="8">
         <v>857</v>
       </c>
     </row>
@@ -15185,7 +15199,7 @@
       <c r="L357" s="4">
         <v>11</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="8">
         <v>860</v>
       </c>
     </row>
@@ -15226,7 +15240,7 @@
       <c r="L358" s="4">
         <v>16</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="8">
         <v>819</v>
       </c>
     </row>
@@ -15265,7 +15279,7 @@
       <c r="L359" s="4">
         <v>10</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="8">
         <v>892</v>
       </c>
     </row>
@@ -15306,7 +15320,7 @@
       <c r="L360" s="4">
         <v>17</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="8">
         <v>854</v>
       </c>
     </row>
@@ -15345,7 +15359,7 @@
       <c r="L361" s="4">
         <v>9</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="8">
         <v>832</v>
       </c>
     </row>
@@ -15386,7 +15400,7 @@
       <c r="L362" s="4">
         <v>17</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="8">
         <v>751</v>
       </c>
     </row>
@@ -15425,7 +15439,7 @@
       <c r="L363" s="4">
         <v>16</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="8">
         <v>867</v>
       </c>
     </row>
@@ -15466,7 +15480,7 @@
       <c r="L364" s="4">
         <v>13</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="8">
         <v>547</v>
       </c>
     </row>
@@ -15505,7 +15519,7 @@
       <c r="L365" s="4">
         <v>25</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="8">
         <v>588</v>
       </c>
     </row>
@@ -15546,7 +15560,7 @@
       <c r="L366" s="4">
         <v>17</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="8">
         <v>624</v>
       </c>
     </row>
@@ -15585,54 +15599,54 @@
       <c r="L367" s="4">
         <v>14</v>
       </c>
-      <c r="M367" s="5">
-        <v>1.1639999999999999</v>
+      <c r="M367" s="6">
+        <v>1164</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="8">
         <v>843</v>
       </c>
-      <c r="D368" s="5">
-        <v>1.069</v>
-      </c>
-      <c r="E368" s="5">
-        <v>4.9770000000000003</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.702</v>
-      </c>
-      <c r="G368" s="5">
-        <v>2.218</v>
-      </c>
-      <c r="H368" s="5">
-        <v>5.6139999999999999</v>
-      </c>
-      <c r="I368" s="5">
-        <v>3.2349999999999999</v>
-      </c>
-      <c r="J368" s="5">
+      <c r="D368" s="6">
+        <v>1069</v>
+      </c>
+      <c r="E368" s="6">
+        <v>4977</v>
+      </c>
+      <c r="F368" s="6">
+        <v>1702</v>
+      </c>
+      <c r="G368" s="6">
+        <v>2218</v>
+      </c>
+      <c r="H368" s="6">
+        <v>5614</v>
+      </c>
+      <c r="I368" s="6">
+        <v>3235</v>
+      </c>
+      <c r="J368" s="8">
         <v>262</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="8">
         <v>36</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="8">
         <v>261</v>
       </c>
-      <c r="M368" s="5">
-        <v>20.216999999999999</v>
+      <c r="M368" s="6">
+        <v>20217</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15704,7 +15718,7 @@
       <c r="L370" s="4">
         <v>3</v>
       </c>
-      <c r="M370" s="5">
+      <c r="M370" s="8">
         <v>412</v>
       </c>
     </row>
@@ -15743,7 +15757,7 @@
       <c r="L371" s="4">
         <v>2</v>
       </c>
-      <c r="M371" s="5">
+      <c r="M371" s="8">
         <v>346</v>
       </c>
     </row>
@@ -15784,7 +15798,7 @@
       <c r="L372" s="4">
         <v>4</v>
       </c>
-      <c r="M372" s="5">
+      <c r="M372" s="8">
         <v>251</v>
       </c>
     </row>
@@ -15823,7 +15837,7 @@
       <c r="L373" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M373" s="5">
+      <c r="M373" s="8">
         <v>206</v>
       </c>
     </row>
@@ -15864,7 +15878,7 @@
       <c r="L374" s="4">
         <v>1</v>
       </c>
-      <c r="M374" s="5">
+      <c r="M374" s="8">
         <v>207</v>
       </c>
     </row>
@@ -15903,7 +15917,7 @@
       <c r="L375" s="4">
         <v>1</v>
       </c>
-      <c r="M375" s="5">
+      <c r="M375" s="8">
         <v>174</v>
       </c>
     </row>
@@ -15944,7 +15958,7 @@
       <c r="L376" s="4">
         <v>3</v>
       </c>
-      <c r="M376" s="5">
+      <c r="M376" s="8">
         <v>237</v>
       </c>
     </row>
@@ -15983,7 +15997,7 @@
       <c r="L377" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M377" s="5">
+      <c r="M377" s="8">
         <v>145</v>
       </c>
     </row>
@@ -16024,7 +16038,7 @@
       <c r="L378" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M378" s="5">
+      <c r="M378" s="8">
         <v>255</v>
       </c>
     </row>
@@ -16063,7 +16077,7 @@
       <c r="L379" s="4">
         <v>1</v>
       </c>
-      <c r="M379" s="5">
+      <c r="M379" s="8">
         <v>203</v>
       </c>
     </row>
@@ -16104,7 +16118,7 @@
       <c r="L380" s="4">
         <v>1</v>
       </c>
-      <c r="M380" s="5">
+      <c r="M380" s="8">
         <v>288</v>
       </c>
     </row>
@@ -16143,7 +16157,7 @@
       <c r="L381" s="4">
         <v>2</v>
       </c>
-      <c r="M381" s="5">
+      <c r="M381" s="8">
         <v>265</v>
       </c>
     </row>
@@ -16184,7 +16198,7 @@
       <c r="L382" s="4">
         <v>2</v>
       </c>
-      <c r="M382" s="5">
+      <c r="M382" s="8">
         <v>339</v>
       </c>
     </row>
@@ -16223,7 +16237,7 @@
       <c r="L383" s="4">
         <v>2</v>
       </c>
-      <c r="M383" s="5">
+      <c r="M383" s="8">
         <v>395</v>
       </c>
     </row>
@@ -16264,7 +16278,7 @@
       <c r="L384" s="4">
         <v>8</v>
       </c>
-      <c r="M384" s="5">
+      <c r="M384" s="8">
         <v>479</v>
       </c>
     </row>
@@ -16303,7 +16317,7 @@
       <c r="L385" s="4">
         <v>5</v>
       </c>
-      <c r="M385" s="5">
+      <c r="M385" s="8">
         <v>469</v>
       </c>
     </row>
@@ -16344,7 +16358,7 @@
       <c r="L386" s="4">
         <v>2</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="8">
         <v>495</v>
       </c>
     </row>
@@ -16383,7 +16397,7 @@
       <c r="L387" s="4">
         <v>6</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="8">
         <v>503</v>
       </c>
     </row>
@@ -16424,7 +16438,7 @@
       <c r="L388" s="4">
         <v>3</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="8">
         <v>467</v>
       </c>
     </row>
@@ -16463,7 +16477,7 @@
       <c r="L389" s="4">
         <v>1</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="8">
         <v>547</v>
       </c>
     </row>
@@ -16504,7 +16518,7 @@
       <c r="L390" s="4">
         <v>3</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="8">
         <v>351</v>
       </c>
     </row>
@@ -16543,7 +16557,7 @@
       <c r="L391" s="4">
         <v>5</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="8">
         <v>418</v>
       </c>
     </row>
@@ -16584,7 +16598,7 @@
       <c r="L392" s="4">
         <v>6</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="8">
         <v>593</v>
       </c>
     </row>
@@ -16623,7 +16637,7 @@
       <c r="L393" s="4">
         <v>10</v>
       </c>
-      <c r="M393" s="5">
+      <c r="M393" s="8">
         <v>878</v>
       </c>
     </row>
@@ -16631,46 +16645,46 @@
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="8">
         <v>692</v>
       </c>
-      <c r="D394" s="5">
+      <c r="D394" s="8">
         <v>760</v>
       </c>
-      <c r="E394" s="5">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="F394" s="5">
+      <c r="E394" s="6">
+        <v>2719</v>
+      </c>
+      <c r="F394" s="8">
         <v>647</v>
       </c>
-      <c r="G394" s="5">
+      <c r="G394" s="8">
         <v>982</v>
       </c>
-      <c r="H394" s="5">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="I394" s="5">
-        <v>1.073</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="H394" s="6">
+        <v>1906</v>
+      </c>
+      <c r="I394" s="6">
+        <v>1073</v>
+      </c>
+      <c r="J394" s="8">
         <v>65</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="8">
         <v>8</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="8">
         <v>71</v>
       </c>
-      <c r="M394" s="5">
-        <v>8.923</v>
+      <c r="M394" s="6">
+        <v>8923</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16742,7 +16756,7 @@
       <c r="L396" s="4">
         <v>7</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="8">
         <v>649</v>
       </c>
     </row>
@@ -16781,7 +16795,7 @@
       <c r="L397" s="4">
         <v>3</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="8">
         <v>648</v>
       </c>
     </row>
@@ -16822,7 +16836,7 @@
       <c r="L398" s="4">
         <v>3</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="8">
         <v>424</v>
       </c>
     </row>
@@ -16861,7 +16875,7 @@
       <c r="L399" s="4">
         <v>2</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="8">
         <v>354</v>
       </c>
     </row>
@@ -16902,7 +16916,7 @@
       <c r="L400" s="4">
         <v>1</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="8">
         <v>311</v>
       </c>
     </row>
@@ -16941,7 +16955,7 @@
       <c r="L401" s="4">
         <v>4</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="8">
         <v>277</v>
       </c>
     </row>
@@ -16982,7 +16996,7 @@
       <c r="L402" s="4">
         <v>5</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="8">
         <v>403</v>
       </c>
     </row>
@@ -17021,7 +17035,7 @@
       <c r="L403" s="4">
         <v>1</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="8">
         <v>281</v>
       </c>
     </row>
@@ -17062,7 +17076,7 @@
       <c r="L404" s="4">
         <v>4</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="8">
         <v>435</v>
       </c>
     </row>
@@ -17101,7 +17115,7 @@
       <c r="L405" s="4">
         <v>2</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="8">
         <v>354</v>
       </c>
     </row>
@@ -17142,7 +17156,7 @@
       <c r="L406" s="4">
         <v>2</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="8">
         <v>468</v>
       </c>
     </row>
@@ -17181,7 +17195,7 @@
       <c r="L407" s="4">
         <v>1</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="8">
         <v>421</v>
       </c>
     </row>
@@ -17222,7 +17236,7 @@
       <c r="L408" s="4">
         <v>3</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="8">
         <v>543</v>
       </c>
     </row>
@@ -17261,7 +17275,7 @@
       <c r="L409" s="4">
         <v>2</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="8">
         <v>536</v>
       </c>
     </row>
@@ -17302,7 +17316,7 @@
       <c r="L410" s="4">
         <v>4</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="8">
         <v>569</v>
       </c>
     </row>
@@ -17341,7 +17355,7 @@
       <c r="L411" s="4">
         <v>3</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="8">
         <v>597</v>
       </c>
     </row>
@@ -17382,7 +17396,7 @@
       <c r="L412" s="4">
         <v>3</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="8">
         <v>524</v>
       </c>
     </row>
@@ -17421,7 +17435,7 @@
       <c r="L413" s="4">
         <v>4</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="8">
         <v>564</v>
       </c>
     </row>
@@ -17462,7 +17476,7 @@
       <c r="L414" s="4">
         <v>9</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="8">
         <v>489</v>
       </c>
     </row>
@@ -17501,7 +17515,7 @@
       <c r="L415" s="4">
         <v>4</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="8">
         <v>528</v>
       </c>
     </row>
@@ -17542,7 +17556,7 @@
       <c r="L416" s="4">
         <v>4</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="8">
         <v>287</v>
       </c>
     </row>
@@ -17581,7 +17595,7 @@
       <c r="L417" s="4">
         <v>5</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="8">
         <v>409</v>
       </c>
     </row>
@@ -17622,7 +17636,7 @@
       <c r="L418" s="4">
         <v>7</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="8">
         <v>354</v>
       </c>
     </row>
@@ -17661,7 +17675,7 @@
       <c r="L419" s="4">
         <v>8</v>
       </c>
-      <c r="M419" s="5">
+      <c r="M419" s="8">
         <v>872</v>
       </c>
     </row>
@@ -17669,46 +17683,46 @@
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="8">
         <v>741</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="8">
         <v>645</v>
       </c>
-      <c r="E420" s="5">
-        <v>2.4180000000000001</v>
-      </c>
-      <c r="F420" s="5">
+      <c r="E420" s="6">
+        <v>2418</v>
+      </c>
+      <c r="F420" s="8">
         <v>699</v>
       </c>
-      <c r="G420" s="5">
-        <v>1.393</v>
-      </c>
-      <c r="H420" s="5">
-        <v>3.6890000000000001</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.512</v>
-      </c>
-      <c r="J420" s="5">
+      <c r="G420" s="6">
+        <v>1393</v>
+      </c>
+      <c r="H420" s="6">
+        <v>3689</v>
+      </c>
+      <c r="I420" s="6">
+        <v>1512</v>
+      </c>
+      <c r="J420" s="8">
         <v>100</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="8">
         <v>9</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="8">
         <v>91</v>
       </c>
-      <c r="M420" s="5">
-        <v>11.297000000000001</v>
+      <c r="M420" s="6">
+        <v>11297</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -17780,8 +17794,8 @@
       <c r="L422" s="4">
         <v>5</v>
       </c>
-      <c r="M422" s="5">
-        <v>1.3</v>
+      <c r="M422" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17819,8 +17833,8 @@
       <c r="L423" s="4">
         <v>1</v>
       </c>
-      <c r="M423" s="5">
-        <v>1.2689999999999999</v>
+      <c r="M423" s="6">
+        <v>1269</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17860,7 +17874,7 @@
       <c r="L424" s="4">
         <v>2</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="8">
         <v>836</v>
       </c>
     </row>
@@ -17899,7 +17913,7 @@
       <c r="L425" s="4">
         <v>2</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="8">
         <v>828</v>
       </c>
     </row>
@@ -17940,7 +17954,7 @@
       <c r="L426" s="4">
         <v>1</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="8">
         <v>797</v>
       </c>
     </row>
@@ -17979,7 +17993,7 @@
       <c r="L427" s="4">
         <v>2</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="8">
         <v>795</v>
       </c>
     </row>
@@ -18020,7 +18034,7 @@
       <c r="L428" s="4">
         <v>5</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="8">
         <v>829</v>
       </c>
     </row>
@@ -18059,7 +18073,7 @@
       <c r="L429" s="4">
         <v>8</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="8">
         <v>798</v>
       </c>
     </row>
@@ -18100,7 +18114,7 @@
       <c r="L430" s="4">
         <v>6</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="8">
         <v>915</v>
       </c>
     </row>
@@ -18139,7 +18153,7 @@
       <c r="L431" s="4">
         <v>5</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="8">
         <v>897</v>
       </c>
     </row>
@@ -18180,7 +18194,7 @@
       <c r="L432" s="4">
         <v>4</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="8">
         <v>853</v>
       </c>
     </row>
@@ -18219,7 +18233,7 @@
       <c r="L433" s="4">
         <v>2</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="8">
         <v>907</v>
       </c>
     </row>
@@ -18260,7 +18274,7 @@
       <c r="L434" s="4">
         <v>7</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="8">
         <v>926</v>
       </c>
     </row>
@@ -18299,7 +18313,7 @@
       <c r="L435" s="4">
         <v>10</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="8">
         <v>963</v>
       </c>
     </row>
@@ -18340,8 +18354,8 @@
       <c r="L436" s="4">
         <v>16</v>
       </c>
-      <c r="M436" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M436" s="6">
+        <v>1001</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18379,7 +18393,7 @@
       <c r="L437" s="4">
         <v>10</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="8">
         <v>939</v>
       </c>
     </row>
@@ -18420,7 +18434,7 @@
       <c r="L438" s="4">
         <v>18</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="8">
         <v>927</v>
       </c>
     </row>
@@ -18459,7 +18473,7 @@
       <c r="L439" s="4">
         <v>11</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="8">
         <v>880</v>
       </c>
     </row>
@@ -18500,7 +18514,7 @@
       <c r="L440" s="4">
         <v>23</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="8">
         <v>816</v>
       </c>
     </row>
@@ -18539,7 +18553,7 @@
       <c r="L441" s="4">
         <v>11</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="8">
         <v>939</v>
       </c>
     </row>
@@ -18580,7 +18594,7 @@
       <c r="L442" s="4">
         <v>7</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="8">
         <v>518</v>
       </c>
     </row>
@@ -18619,7 +18633,7 @@
       <c r="L443" s="4">
         <v>13</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="8">
         <v>607</v>
       </c>
     </row>
@@ -18660,7 +18674,7 @@
       <c r="L444" s="4">
         <v>7</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="8">
         <v>690</v>
       </c>
     </row>
@@ -18699,54 +18713,54 @@
       <c r="L445" s="4">
         <v>7</v>
       </c>
-      <c r="M445" s="5">
-        <v>1.232</v>
+      <c r="M445" s="6">
+        <v>1232</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="8">
         <v>729</v>
       </c>
-      <c r="D446" s="5">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="E446" s="5">
-        <v>4.0739999999999998</v>
-      </c>
-      <c r="F446" s="5">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="G446" s="5">
-        <v>2.1819999999999999</v>
-      </c>
-      <c r="H446" s="5">
-        <v>7.0469999999999997</v>
-      </c>
-      <c r="I446" s="5">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="J446" s="5">
+      <c r="D446" s="6">
+        <v>1114</v>
+      </c>
+      <c r="E446" s="6">
+        <v>4074</v>
+      </c>
+      <c r="F446" s="6">
+        <v>1457</v>
+      </c>
+      <c r="G446" s="6">
+        <v>2182</v>
+      </c>
+      <c r="H446" s="6">
+        <v>7047</v>
+      </c>
+      <c r="I446" s="6">
+        <v>4262</v>
+      </c>
+      <c r="J446" s="8">
         <v>381</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="8">
         <v>33</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="8">
         <v>183</v>
       </c>
-      <c r="M446" s="5">
-        <v>21.462</v>
+      <c r="M446" s="6">
+        <v>21462</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B447" s="8"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="2" t="s">
         <v>2</v>
       </c>
@@ -18803,8 +18817,8 @@
       <c r="G448" s="4">
         <v>440</v>
       </c>
-      <c r="H448" s="4">
-        <v>1.2250000000000001</v>
+      <c r="H448" s="5">
+        <v>1225</v>
       </c>
       <c r="I448" s="4">
         <v>283</v>
@@ -18818,8 +18832,8 @@
       <c r="L448" s="4">
         <v>22</v>
       </c>
-      <c r="M448" s="5">
-        <v>1.9910000000000001</v>
+      <c r="M448" s="6">
+        <v>1991</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -18842,8 +18856,8 @@
       <c r="G449" s="4">
         <v>287</v>
       </c>
-      <c r="H449" s="4">
-        <v>1.3540000000000001</v>
+      <c r="H449" s="5">
+        <v>1354</v>
       </c>
       <c r="I449" s="4">
         <v>448</v>
@@ -18857,8 +18871,8 @@
       <c r="L449" s="4">
         <v>16</v>
       </c>
-      <c r="M449" s="5">
-        <v>2.1219999999999999</v>
+      <c r="M449" s="6">
+        <v>2122</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -18898,8 +18912,8 @@
       <c r="L450" s="4">
         <v>12</v>
       </c>
-      <c r="M450" s="5">
-        <v>1.5189999999999999</v>
+      <c r="M450" s="6">
+        <v>1519</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -18937,8 +18951,8 @@
       <c r="L451" s="4">
         <v>15</v>
       </c>
-      <c r="M451" s="5">
-        <v>1.7669999999999999</v>
+      <c r="M451" s="6">
+        <v>1767</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
@@ -18978,8 +18992,8 @@
       <c r="L452" s="4">
         <v>14</v>
       </c>
-      <c r="M452" s="5">
-        <v>1.7350000000000001</v>
+      <c r="M452" s="6">
+        <v>1735</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
@@ -19017,8 +19031,8 @@
       <c r="L453" s="4">
         <v>21</v>
       </c>
-      <c r="M453" s="5">
-        <v>1.8069999999999999</v>
+      <c r="M453" s="6">
+        <v>1807</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -19058,8 +19072,8 @@
       <c r="L454" s="4">
         <v>15</v>
       </c>
-      <c r="M454" s="5">
-        <v>1.8580000000000001</v>
+      <c r="M454" s="6">
+        <v>1858</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -19097,8 +19111,8 @@
       <c r="L455" s="4">
         <v>24</v>
       </c>
-      <c r="M455" s="5">
-        <v>1.7729999999999999</v>
+      <c r="M455" s="6">
+        <v>1773</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -19138,8 +19152,8 @@
       <c r="L456" s="4">
         <v>23</v>
       </c>
-      <c r="M456" s="5">
-        <v>1.744</v>
+      <c r="M456" s="6">
+        <v>1744</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -19177,8 +19191,8 @@
       <c r="L457" s="4">
         <v>20</v>
       </c>
-      <c r="M457" s="5">
-        <v>1.6990000000000001</v>
+      <c r="M457" s="6">
+        <v>1699</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -19218,8 +19232,8 @@
       <c r="L458" s="4">
         <v>18</v>
       </c>
-      <c r="M458" s="5">
-        <v>1.472</v>
+      <c r="M458" s="6">
+        <v>1472</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -19257,8 +19271,8 @@
       <c r="L459" s="4">
         <v>27</v>
       </c>
-      <c r="M459" s="5">
-        <v>1.341</v>
+      <c r="M459" s="6">
+        <v>1341</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
@@ -19298,8 +19312,8 @@
       <c r="L460" s="4">
         <v>21</v>
       </c>
-      <c r="M460" s="5">
-        <v>1.3089999999999999</v>
+      <c r="M460" s="6">
+        <v>1309</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
@@ -19337,8 +19351,8 @@
       <c r="L461" s="4">
         <v>24</v>
       </c>
-      <c r="M461" s="5">
-        <v>1.214</v>
+      <c r="M461" s="6">
+        <v>1214</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -19378,8 +19392,8 @@
       <c r="L462" s="4">
         <v>20</v>
       </c>
-      <c r="M462" s="5">
-        <v>1.198</v>
+      <c r="M462" s="6">
+        <v>1198</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
@@ -19417,8 +19431,8 @@
       <c r="L463" s="4">
         <v>17</v>
       </c>
-      <c r="M463" s="5">
-        <v>1.2170000000000001</v>
+      <c r="M463" s="6">
+        <v>1217</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -19458,8 +19472,8 @@
       <c r="L464" s="4">
         <v>13</v>
       </c>
-      <c r="M464" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M464" s="6">
+        <v>1114</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -19497,8 +19511,8 @@
       <c r="L465" s="4">
         <v>13</v>
       </c>
-      <c r="M465" s="5">
-        <v>1.03</v>
+      <c r="M465" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -19538,7 +19552,7 @@
       <c r="L466" s="4">
         <v>16</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="8">
         <v>854</v>
       </c>
     </row>
@@ -19577,7 +19591,7 @@
       <c r="L467" s="4">
         <v>6</v>
       </c>
-      <c r="M467" s="5">
+      <c r="M467" s="8">
         <v>949</v>
       </c>
     </row>
@@ -19618,7 +19632,7 @@
       <c r="L468" s="4">
         <v>8</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="8">
         <v>599</v>
       </c>
     </row>
@@ -19657,7 +19671,7 @@
       <c r="L469" s="4">
         <v>12</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="8">
         <v>656</v>
       </c>
     </row>
@@ -19698,7 +19712,7 @@
       <c r="L470" s="4">
         <v>12</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="8">
         <v>700</v>
       </c>
     </row>
@@ -19737,51 +19751,66 @@
       <c r="L471" s="4">
         <v>17</v>
       </c>
-      <c r="M471" s="5">
-        <v>1.222</v>
+      <c r="M471" s="6">
+        <v>1222</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5">
+      <c r="B472" s="7"/>
+      <c r="C472" s="8">
         <v>907</v>
       </c>
-      <c r="D472" s="5">
-        <v>1.569</v>
-      </c>
-      <c r="E472" s="5">
-        <v>5.8550000000000004</v>
-      </c>
-      <c r="F472" s="5">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="G472" s="5">
-        <v>3.86</v>
-      </c>
-      <c r="H472" s="5">
-        <v>9.4190000000000005</v>
-      </c>
-      <c r="I472" s="5">
-        <v>7.4660000000000002</v>
-      </c>
-      <c r="J472" s="5">
+      <c r="D472" s="6">
+        <v>1569</v>
+      </c>
+      <c r="E472" s="6">
+        <v>5855</v>
+      </c>
+      <c r="F472" s="6">
+        <v>2175</v>
+      </c>
+      <c r="G472" s="6">
+        <v>3860</v>
+      </c>
+      <c r="H472" s="6">
+        <v>9419</v>
+      </c>
+      <c r="I472" s="6">
+        <v>7466</v>
+      </c>
+      <c r="J472" s="8">
         <v>982</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="8">
         <v>251</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="8">
         <v>406</v>
       </c>
-      <c r="M472" s="5">
-        <v>32.89</v>
+      <c r="M472" s="6">
+        <v>32890</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A473" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A474" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
     <mergeCell ref="A421:B421"/>
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A161:B161"/>
@@ -19790,11 +19819,6 @@
     <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
